--- a/data/TaxVAMB_Source_Data.xlsx
+++ b/data/TaxVAMB_Source_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmb127/Documents/TaxVAMB_paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B18EF8-2413-F348-8ECB-BC4F222F2176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E857A93-C72A-D84A-8C1F-08A718BC6B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1680" yWindow="-23500" windowWidth="38400" windowHeight="23500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,15 @@
     <sheet name="Figure 5c" sheetId="6" r:id="rId6"/>
     <sheet name="Figure 6b" sheetId="7" r:id="rId7"/>
     <sheet name="Figure 6c" sheetId="8" r:id="rId8"/>
-    <sheet name="Supplementary Figure 3" sheetId="14" r:id="rId9"/>
-    <sheet name="Supplementary Figure 4" sheetId="9" r:id="rId10"/>
-    <sheet name="Supplementary Figure 5" sheetId="10" r:id="rId11"/>
-    <sheet name="Supplementary Figure 6" sheetId="11" r:id="rId12"/>
-    <sheet name="Supplementary Figure 7b" sheetId="12" r:id="rId13"/>
-    <sheet name="Supplementary Figure 8" sheetId="13" r:id="rId14"/>
+    <sheet name="Supplementary Figure" sheetId="15" r:id="rId9"/>
+    <sheet name="Supplementary Figure 3" sheetId="14" r:id="rId10"/>
+    <sheet name="Supplementary Figure 4" sheetId="9" r:id="rId11"/>
+    <sheet name="Supplementary Figure 5" sheetId="10" r:id="rId12"/>
+    <sheet name="Supplementary Figure 6" sheetId="11" r:id="rId13"/>
+    <sheet name="Supplementary Figure 7b" sheetId="12" r:id="rId14"/>
+    <sheet name="Supplementary Figure 8" sheetId="13" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="241">
   <si>
     <t>Dataset</t>
   </si>
@@ -739,6 +740,36 @@
   </si>
   <si>
     <t>gtdbtk</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Genomes</t>
+  </si>
+  <si>
+    <t>Assemblies</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>vamb</t>
+  </si>
+  <si>
+    <t>taxvamb</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Taxometer</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -748,7 +779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -798,6 +829,26 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -970,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1030,6 +1081,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4282,6 +4342,1025 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ED3BFC-EC67-0148-8780-6B694AAD2802}">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="14">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="14">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="6">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5303,7 +6382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5476,7 +6555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6561,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10517,7 +11596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14480,7 +15559,9 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -18445,1017 +19526,458 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ED3BFC-EC67-0148-8780-6B694AAD2802}">
-  <dimension ref="A1:C91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BCD97C-3359-9C47-AB14-B0091E523971}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="31">
+        <v>92</v>
+      </c>
+      <c r="D2" s="31">
+        <v>166</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="31">
+        <v>98</v>
+      </c>
+      <c r="D3" s="31">
+        <v>116</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="31">
+        <v>112</v>
+      </c>
+      <c r="D4" s="31">
+        <v>186</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="31">
+        <v>141</v>
+      </c>
+      <c r="D5" s="31">
+        <v>206</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="31">
+        <v>148</v>
+      </c>
+      <c r="D6" s="31">
+        <v>179</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="31">
+        <v>102</v>
+      </c>
+      <c r="D7" s="31">
+        <v>169</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="31">
+        <v>121</v>
+      </c>
+      <c r="D8" s="31">
+        <v>140</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="31">
+        <v>121</v>
+      </c>
+      <c r="D9" s="31">
+        <v>135</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="31">
+        <v>135</v>
+      </c>
+      <c r="D10" s="31">
+        <v>156</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="31">
+        <v>97</v>
+      </c>
+      <c r="D11" s="31">
+        <v>124</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="31">
+        <v>77</v>
+      </c>
+      <c r="D12" s="31">
+        <v>100</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="31">
+        <v>105</v>
+      </c>
+      <c r="D13" s="31">
+        <v>113</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="B14" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="31">
+        <v>76</v>
+      </c>
+      <c r="D14" s="31">
+        <v>122</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="31">
+        <v>68</v>
+      </c>
+      <c r="D15" s="31">
+        <v>162</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="31">
+        <v>90</v>
+      </c>
+      <c r="D16" s="31">
+        <v>193</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="31">
+        <v>82</v>
+      </c>
+      <c r="D17" s="31">
+        <v>161</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="31">
+        <v>125</v>
+      </c>
+      <c r="D18" s="31">
+        <v>148</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="31">
+        <v>138</v>
+      </c>
+      <c r="D19" s="31">
+        <v>187</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="31">
+        <v>105</v>
+      </c>
+      <c r="D20" s="31">
+        <v>155</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B21" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="31">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="D21" s="31">
+        <v>124</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="31">
+        <v>41</v>
+      </c>
+      <c r="D22" s="31">
+        <v>87</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B23" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="31">
+        <v>105</v>
+      </c>
+      <c r="D23" s="31">
+        <v>115</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="31">
+        <v>65</v>
+      </c>
+      <c r="D24" s="31">
+        <v>95</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="B25" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="31">
+        <v>62</v>
+      </c>
+      <c r="D25" s="31">
+        <v>88</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B26" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="31">
+        <v>58</v>
+      </c>
+      <c r="D26" s="31">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="10">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="6">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="10">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="14">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="6">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="6">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="6">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="6">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="14">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="6">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="6">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="6">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="6">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="6">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="6">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="6">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="14">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="6">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="6">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="14">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="6">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="6">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="14">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="6">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="6">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="6">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="14">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="6">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="6">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="6">
+      <c r="E26" s="35" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="14">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="6">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="6">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="14">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="6">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="6">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="6">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="14">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="6">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" s="6">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="6">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/TaxVAMB_Source_Data.xlsx
+++ b/data/TaxVAMB_Source_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmb127/Documents/TaxVAMB_paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E857A93-C72A-D84A-8C1F-08A718BC6B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5076F120-9E65-E94F-B879-6B8FA7FFDDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1680" yWindow="-23500" windowWidth="38400" windowHeight="23500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,14 @@
     <sheet name="Figure 5c" sheetId="6" r:id="rId6"/>
     <sheet name="Figure 6b" sheetId="7" r:id="rId7"/>
     <sheet name="Figure 6c" sheetId="8" r:id="rId8"/>
-    <sheet name="Supplementary Figure" sheetId="15" r:id="rId9"/>
-    <sheet name="Supplementary Figure 3" sheetId="14" r:id="rId10"/>
-    <sheet name="Supplementary Figure 4" sheetId="9" r:id="rId11"/>
-    <sheet name="Supplementary Figure 5" sheetId="10" r:id="rId12"/>
-    <sheet name="Supplementary Figure 6" sheetId="11" r:id="rId13"/>
-    <sheet name="Supplementary Figure 7b" sheetId="12" r:id="rId14"/>
-    <sheet name="Supplementary Figure 8" sheetId="13" r:id="rId15"/>
+    <sheet name="Supplementary Figure Databases" sheetId="16" r:id="rId9"/>
+    <sheet name="Supplementary Figure" sheetId="15" r:id="rId10"/>
+    <sheet name="Supplementary Figure 3" sheetId="14" r:id="rId11"/>
+    <sheet name="Supplementary Figure 4" sheetId="9" r:id="rId12"/>
+    <sheet name="Supplementary Figure 5" sheetId="10" r:id="rId13"/>
+    <sheet name="Supplementary Figure 6" sheetId="11" r:id="rId14"/>
+    <sheet name="Supplementary Figure 7b" sheetId="12" r:id="rId15"/>
+    <sheet name="Supplementary Figure 8" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="257">
   <si>
     <t>Dataset</t>
   </si>
@@ -770,6 +771,54 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>HQ_bins</t>
+  </si>
+  <si>
+    <t>MQ_bins</t>
+  </si>
+  <si>
+    <t>vamb_is_with_reclustering</t>
+  </si>
+  <si>
+    <t>no_predictor</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>vamb_based_tool</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>bee_metagenome_PRJNA1007366</t>
+  </si>
+  <si>
+    <t>kalmari_taxvamb_default</t>
+  </si>
+  <si>
+    <t>human_saliva_oral_PRJDB16210</t>
+  </si>
+  <si>
+    <t>PRJNA1003562</t>
+  </si>
+  <si>
+    <t>PRJNA638805</t>
+  </si>
+  <si>
+    <t>PRJNA783873</t>
+  </si>
+  <si>
+    <t>vag_infert_PRJNA1078345</t>
+  </si>
+  <si>
+    <t>trembl_taxvamb_default</t>
+  </si>
+  <si>
+    <t>run_taxvamb_gtdb_w_unknown</t>
   </si>
 </sst>
 </file>
@@ -779,7 +828,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -849,6 +898,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1081,15 +1138,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4342,6 +4401,466 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BCD97C-3359-9C47-AB14-B0091E523971}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="31">
+        <v>92</v>
+      </c>
+      <c r="D2" s="31">
+        <v>166</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="31">
+        <v>98</v>
+      </c>
+      <c r="D3" s="31">
+        <v>116</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="31">
+        <v>112</v>
+      </c>
+      <c r="D4" s="31">
+        <v>186</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="31">
+        <v>141</v>
+      </c>
+      <c r="D5" s="31">
+        <v>206</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="31">
+        <v>148</v>
+      </c>
+      <c r="D6" s="31">
+        <v>179</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="31">
+        <v>102</v>
+      </c>
+      <c r="D7" s="31">
+        <v>169</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="31">
+        <v>121</v>
+      </c>
+      <c r="D8" s="31">
+        <v>140</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="31">
+        <v>121</v>
+      </c>
+      <c r="D9" s="31">
+        <v>135</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="31">
+        <v>135</v>
+      </c>
+      <c r="D10" s="31">
+        <v>156</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="31">
+        <v>97</v>
+      </c>
+      <c r="D11" s="31">
+        <v>124</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="31">
+        <v>77</v>
+      </c>
+      <c r="D12" s="31">
+        <v>100</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="31">
+        <v>105</v>
+      </c>
+      <c r="D13" s="31">
+        <v>113</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="31">
+        <v>76</v>
+      </c>
+      <c r="D14" s="31">
+        <v>122</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="31">
+        <v>68</v>
+      </c>
+      <c r="D15" s="31">
+        <v>162</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="31">
+        <v>90</v>
+      </c>
+      <c r="D16" s="31">
+        <v>193</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="31">
+        <v>82</v>
+      </c>
+      <c r="D17" s="31">
+        <v>161</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="31">
+        <v>125</v>
+      </c>
+      <c r="D18" s="31">
+        <v>148</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="31">
+        <v>138</v>
+      </c>
+      <c r="D19" s="31">
+        <v>187</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="31">
+        <v>105</v>
+      </c>
+      <c r="D20" s="31">
+        <v>155</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="31">
+        <v>103</v>
+      </c>
+      <c r="D21" s="31">
+        <v>124</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="31">
+        <v>41</v>
+      </c>
+      <c r="D22" s="31">
+        <v>87</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="31">
+        <v>105</v>
+      </c>
+      <c r="D23" s="31">
+        <v>115</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="31">
+        <v>65</v>
+      </c>
+      <c r="D24" s="31">
+        <v>95</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="31">
+        <v>62</v>
+      </c>
+      <c r="D25" s="31">
+        <v>88</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="31">
+        <v>58</v>
+      </c>
+      <c r="D26" s="31">
+        <v>68</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ED3BFC-EC67-0148-8780-6B694AAD2802}">
   <dimension ref="A1:C91"/>
   <sheetViews>
@@ -5360,7 +5879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6382,7 +6901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6555,7 +7074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7640,7 +8159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11596,7 +12115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -19526,459 +20045,511 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BCD97C-3359-9C47-AB14-B0091E523971}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E37AB-6A76-774E-889D-1138ECDECC2C}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="34">
+        <v>6</v>
+      </c>
+      <c r="B2" s="34">
+        <v>10</v>
+      </c>
+      <c r="C2" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="34">
+        <v>71</v>
+      </c>
+      <c r="B3" s="34">
+        <v>266</v>
+      </c>
+      <c r="C3" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="34">
+        <v>26</v>
+      </c>
+      <c r="B4" s="34">
+        <v>64</v>
+      </c>
+      <c r="C4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="34">
+        <v>116</v>
+      </c>
+      <c r="B5" s="34">
+        <v>446</v>
+      </c>
+      <c r="C5" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="34">
+        <v>33</v>
+      </c>
+      <c r="B6" s="34">
+        <v>178</v>
+      </c>
+      <c r="C6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34">
+        <v>11</v>
+      </c>
+      <c r="C7" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="34">
+        <v>5</v>
+      </c>
+      <c r="B8" s="34">
+        <v>10</v>
+      </c>
+      <c r="C8" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="34">
+        <v>120</v>
+      </c>
+      <c r="B9" s="34">
+        <v>338</v>
+      </c>
+      <c r="C9" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="34">
+        <v>25</v>
+      </c>
+      <c r="B10" s="34">
+        <v>77</v>
+      </c>
+      <c r="C10" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="34">
+        <v>148</v>
+      </c>
+      <c r="B11" s="34">
+        <v>415</v>
+      </c>
+      <c r="C11" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="34">
+        <v>41</v>
+      </c>
+      <c r="B12" s="34">
+        <v>259</v>
+      </c>
+      <c r="C12" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="34">
+        <v>7</v>
+      </c>
+      <c r="B13" s="34">
         <v>12</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="31">
-        <v>92</v>
-      </c>
-      <c r="D2" s="31">
-        <v>166</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="31" t="s">
+      <c r="C13" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="34">
+        <v>4</v>
+      </c>
+      <c r="B14" s="34">
         <v>12</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="31">
-        <v>98</v>
-      </c>
-      <c r="D3" s="31">
-        <v>116</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="31" t="s">
+      <c r="C14" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="34">
+        <v>201</v>
+      </c>
+      <c r="B15" s="34">
+        <v>515</v>
+      </c>
+      <c r="C15" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="34">
+        <v>40</v>
+      </c>
+      <c r="B16" s="34">
+        <v>317</v>
+      </c>
+      <c r="C16" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="34">
+        <v>132</v>
+      </c>
+      <c r="B17" s="34">
+        <v>355</v>
+      </c>
+      <c r="C17" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="34">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34">
+        <v>90</v>
+      </c>
+      <c r="C18" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="34">
+        <v>7</v>
+      </c>
+      <c r="B19" s="34">
         <v>12</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="31">
-        <v>112</v>
-      </c>
-      <c r="D4" s="31">
-        <v>186</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="31">
-        <v>141</v>
-      </c>
-      <c r="D5" s="31">
-        <v>206</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="31">
-        <v>148</v>
-      </c>
-      <c r="D6" s="31">
-        <v>179</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="31">
-        <v>102</v>
-      </c>
-      <c r="D7" s="31">
-        <v>169</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="31">
-        <v>121</v>
-      </c>
-      <c r="D8" s="31">
-        <v>140</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="31">
-        <v>121</v>
-      </c>
-      <c r="D9" s="31">
-        <v>135</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="31">
-        <v>135</v>
-      </c>
-      <c r="D10" s="31">
-        <v>156</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="31">
-        <v>97</v>
-      </c>
-      <c r="D11" s="31">
-        <v>124</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="31">
-        <v>77</v>
-      </c>
-      <c r="D12" s="31">
-        <v>100</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="31">
-        <v>105</v>
-      </c>
-      <c r="D13" s="31">
-        <v>113</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="31">
-        <v>76</v>
-      </c>
-      <c r="D14" s="31">
-        <v>122</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="31">
-        <v>68</v>
-      </c>
-      <c r="D15" s="31">
-        <v>162</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="31">
-        <v>90</v>
-      </c>
-      <c r="D16" s="31">
-        <v>193</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="31">
-        <v>82</v>
-      </c>
-      <c r="D17" s="31">
-        <v>161</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="31">
-        <v>125</v>
-      </c>
-      <c r="D18" s="31">
-        <v>148</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="31">
-        <v>138</v>
-      </c>
-      <c r="D19" s="31">
-        <v>187</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="31">
-        <v>105</v>
-      </c>
-      <c r="D20" s="31">
-        <v>155</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="31">
-        <v>103</v>
-      </c>
-      <c r="D21" s="31">
-        <v>124</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="31">
-        <v>41</v>
-      </c>
-      <c r="D22" s="31">
-        <v>87</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="31">
-        <v>105</v>
-      </c>
-      <c r="D23" s="31">
-        <v>115</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="31">
-        <v>65</v>
-      </c>
-      <c r="D24" s="31">
-        <v>95</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="31">
-        <v>62</v>
-      </c>
-      <c r="D25" s="31">
-        <v>88</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="31">
-        <v>58</v>
-      </c>
-      <c r="D26" s="31">
-        <v>68</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>237</v>
-      </c>
+      <c r="C19" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/TaxVAMB_Source_Data.xlsx
+++ b/data/TaxVAMB_Source_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmb127/Documents/TaxVAMB_paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84E04F-D595-6944-8D77-7433E1F74270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEB9012-B1D5-A44C-B0D5-190F26C369B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1680" yWindow="-23500" windowWidth="38400" windowHeight="23500" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2a" sheetId="19" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="Figure 6c" sheetId="8" r:id="rId10"/>
     <sheet name="Supplementary Figure 4" sheetId="10" r:id="rId11"/>
     <sheet name="Supplementary Figure 5" sheetId="16" r:id="rId12"/>
-    <sheet name="Supplementary Figure 6" sheetId="15" r:id="rId13"/>
-    <sheet name="Supplementary Figure 7b" sheetId="12" r:id="rId14"/>
-    <sheet name="Supplementary Figure 8" sheetId="13" r:id="rId15"/>
+    <sheet name="Supplementary Figure 6" sheetId="24" r:id="rId13"/>
+    <sheet name="Supplementary Figure 7" sheetId="15" r:id="rId14"/>
+    <sheet name="Supplementary Figure 8b" sheetId="12" r:id="rId15"/>
+    <sheet name="Supplementary Figure 9" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="430">
   <si>
     <t>Dataset</t>
   </si>
@@ -1288,6 +1289,12 @@
     <t>SemiBin2</t>
   </si>
   <si>
+    <t>HQ_GUNC</t>
+  </si>
+  <si>
+    <t>MQ_GUNC</t>
+  </si>
+  <si>
     <t>stacked</t>
   </si>
   <si>
@@ -1310,6 +1317,27 @@
   </si>
   <si>
     <t>TaxVAMB (Centrifuge)</t>
+  </si>
+  <si>
+    <t>Human gut (longread)</t>
+  </si>
+  <si>
+    <t>Sludge (longread)</t>
+  </si>
+  <si>
+    <t>TaxVAMB (Kalmari)</t>
+  </si>
+  <si>
+    <t>TaxVAMB (Kraken)</t>
+  </si>
+  <si>
+    <t>TaxVAMB (Metabuli)</t>
+  </si>
+  <si>
+    <t>TaxVAMB (Trembl)</t>
+  </si>
+  <si>
+    <t>TaxVAMB (MMSeqs2)</t>
   </si>
 </sst>
 </file>
@@ -13364,8 +13392,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -14165,6 +14193,1065 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD03773-EAA3-B544-A37A-98227B841396}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>203</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>211</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>338</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>244</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>213</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>320</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>388</v>
+      </c>
+      <c r="E10">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>386</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>315</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20">
+        <v>116</v>
+      </c>
+      <c r="D20">
+        <v>446</v>
+      </c>
+      <c r="E20">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>274</v>
+      </c>
+      <c r="E21">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>338</v>
+      </c>
+      <c r="E22">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>334</v>
+      </c>
+      <c r="E23">
+        <v>49</v>
+      </c>
+      <c r="F23">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24">
+        <v>201</v>
+      </c>
+      <c r="D24">
+        <v>515</v>
+      </c>
+      <c r="E24">
+        <v>197</v>
+      </c>
+      <c r="F24">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25">
+        <v>148</v>
+      </c>
+      <c r="D25">
+        <v>415</v>
+      </c>
+      <c r="E25">
+        <v>141</v>
+      </c>
+      <c r="F25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>178</v>
+      </c>
+      <c r="E26">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>182</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>427</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>187</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>173</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>317</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>259</v>
+      </c>
+      <c r="E31">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>179</v>
+      </c>
+      <c r="D33">
+        <v>488</v>
+      </c>
+      <c r="E33">
+        <v>178</v>
+      </c>
+      <c r="F33">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>127</v>
+      </c>
+      <c r="D34">
+        <v>352</v>
+      </c>
+      <c r="E34">
+        <v>124</v>
+      </c>
+      <c r="F34">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>266</v>
+      </c>
+      <c r="E35">
+        <v>70</v>
+      </c>
+      <c r="F35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36">
+        <v>120</v>
+      </c>
+      <c r="D36">
+        <v>336</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>179</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C38">
+        <v>114</v>
+      </c>
+      <c r="D38">
+        <v>343</v>
+      </c>
+      <c r="E38">
+        <v>112</v>
+      </c>
+      <c r="F38">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>84</v>
+      </c>
+      <c r="D39">
+        <v>269</v>
+      </c>
+      <c r="E39">
+        <v>82</v>
+      </c>
+      <c r="F39">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>422</v>
+      </c>
+      <c r="C40">
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <v>324</v>
+      </c>
+      <c r="E40">
+        <v>109</v>
+      </c>
+      <c r="F40">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C41">
+        <v>132</v>
+      </c>
+      <c r="D41">
+        <v>355</v>
+      </c>
+      <c r="E41">
+        <v>131</v>
+      </c>
+      <c r="F41">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" t="s">
+        <v>428</v>
+      </c>
+      <c r="C42">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>338</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>425</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>427</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" t="s">
+        <v>429</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BCD97C-3359-9C47-AB14-B0091E523971}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -14624,7 +15711,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C27">
         <v>82</v>
@@ -14641,7 +15728,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C28">
         <v>76</v>
@@ -14658,7 +15745,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C29">
         <v>110</v>
@@ -14675,7 +15762,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C30">
         <v>94</v>
@@ -14692,7 +15779,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C31">
         <v>131</v>
@@ -14709,7 +15796,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C32">
         <v>136</v>
@@ -14726,7 +15813,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C33">
         <v>137</v>
@@ -14743,7 +15830,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C34">
         <v>129</v>
@@ -14760,7 +15847,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C35">
         <v>97</v>
@@ -14777,7 +15864,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C36">
         <v>89</v>
@@ -14794,7 +15881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18750,7 +19837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22848,7 +23935,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>19</v>
@@ -22865,7 +23952,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>20</v>
@@ -22984,7 +24071,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>19</v>
@@ -23001,7 +24088,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>20</v>
@@ -23120,7 +24207,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>19</v>
@@ -23137,7 +24224,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>20</v>
@@ -23256,7 +24343,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>19</v>
@@ -23273,7 +24360,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>20</v>
@@ -23392,7 +24479,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>19</v>
@@ -23409,7 +24496,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>20</v>
@@ -23431,7 +24518,7 @@
   <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -28865,10 +29952,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F62466E-E119-714C-9C9A-B31394BFBCC7}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -28881,22 +29968,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>417</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -29054,6 +30141,9 @@
       <c r="H7">
         <v>10</v>
       </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/TaxVAMB_Source_Data.xlsx
+++ b/data/TaxVAMB_Source_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmb127/Documents/TaxVAMB_paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA57A5F3-66A7-6A4C-B95F-DEB42146940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4773AB15-EBE9-9F44-9129-B64AEC73F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2a" sheetId="19" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="475">
   <si>
     <t>Dataset</t>
   </si>
@@ -1427,6 +1427,54 @@
   </si>
   <si>
     <t>gtdbtk_vamb</t>
+  </si>
+  <si>
+    <t>gut/checkm2/comebin/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/default_vamb/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/kraken_taxvamb_default/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/metabat/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/metabuli_taxvamb_default/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>gut/checkm2/metadecoder/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/run_taxvamb_centrifuge/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/run_taxvamb_gtdb_w_unknown/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/semibin/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/reclustering/default_vamb/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/reclustering/kraken_taxvamb_default/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/reclustering/metabuli_taxvamb_default/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/reclustering/run_taxvamb_centrifuge/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>gut/checkm2/reclustering/run_taxvamb_gtdb_w_unknown/quality_report.tsv</t>
+  </si>
+  <si>
+    <t>Human gut (Fecal Transplant)</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1546,6 +1594,25 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C481F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A3243"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1689,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1757,6 +1824,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13469,7 +13539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BCD97C-3359-9C47-AB14-B0091E523971}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -37197,10 +37267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E5CA5-3577-E94F-83BF-B08C0E7AE84F}">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -41239,6 +41309,396 @@
         <v>217</v>
       </c>
     </row>
+    <row r="156" spans="1:8" ht="16">
+      <c r="A156" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" s="32">
+        <v>61</v>
+      </c>
+      <c r="C156" s="32">
+        <v>160</v>
+      </c>
+      <c r="D156" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G156" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16">
+      <c r="A157" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" s="32">
+        <v>340</v>
+      </c>
+      <c r="C157" s="32">
+        <v>610</v>
+      </c>
+      <c r="D157" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G157" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="16">
+      <c r="A158" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="B158" s="32">
+        <v>230</v>
+      </c>
+      <c r="C158" s="32">
+        <v>514</v>
+      </c>
+      <c r="D158" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G158" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16">
+      <c r="A159" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B159" s="32">
+        <v>20</v>
+      </c>
+      <c r="C159" s="32">
+        <v>83</v>
+      </c>
+      <c r="D159" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G159" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="16">
+      <c r="A160" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B160" s="32">
+        <v>236</v>
+      </c>
+      <c r="C160" s="32">
+        <v>563</v>
+      </c>
+      <c r="D160" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G160" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="16">
+      <c r="A161" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B161" s="32">
+        <v>36</v>
+      </c>
+      <c r="C161" s="32">
+        <v>125</v>
+      </c>
+      <c r="D161" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G161" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="16">
+      <c r="A162" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="B162" s="32">
+        <v>207</v>
+      </c>
+      <c r="C162" s="32">
+        <v>484</v>
+      </c>
+      <c r="D162" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G162" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="16">
+      <c r="A163" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B163" s="32">
+        <v>362</v>
+      </c>
+      <c r="C163" s="32">
+        <v>656</v>
+      </c>
+      <c r="D163" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G163" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="16">
+      <c r="A164" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="B164" s="32">
+        <v>375</v>
+      </c>
+      <c r="C164" s="32">
+        <v>634</v>
+      </c>
+      <c r="D164" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G164" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" s="36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="16">
+      <c r="A165" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B165" s="32">
+        <v>340</v>
+      </c>
+      <c r="C165" s="32">
+        <v>610</v>
+      </c>
+      <c r="D165" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G165" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="16">
+      <c r="A166" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="B166" s="32">
+        <v>232</v>
+      </c>
+      <c r="C166" s="32">
+        <v>520</v>
+      </c>
+      <c r="D166" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G166" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="16">
+      <c r="A167" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B167" s="32">
+        <v>242</v>
+      </c>
+      <c r="C167" s="32">
+        <v>571</v>
+      </c>
+      <c r="D167" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G167" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16">
+      <c r="A168" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B168" s="32">
+        <v>210</v>
+      </c>
+      <c r="C168" s="32">
+        <v>492</v>
+      </c>
+      <c r="D168" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G168" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16">
+      <c r="A169" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B169" s="32">
+        <v>362</v>
+      </c>
+      <c r="C169" s="32">
+        <v>656</v>
+      </c>
+      <c r="D169" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G169" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16">
+      <c r="A170" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B170" s="31">
+        <v>20</v>
+      </c>
+      <c r="C170" s="31">
+        <v>63</v>
+      </c>
+      <c r="D170" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E170" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G170" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H170" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H155">
     <sortCondition ref="F2:F155"/>
@@ -41250,13 +41710,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9B97EE-AE00-1A4B-A9E4-0F16B6DBC7FA}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="27" t="s">
@@ -42244,6 +42708,108 @@
       </c>
       <c r="H38" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>474</v>
+      </c>
+      <c r="B39">
+        <v>520</v>
+      </c>
+      <c r="C39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" t="s">
+        <v>474</v>
+      </c>
+      <c r="E39">
+        <v>0.83089199999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>474</v>
+      </c>
+      <c r="B40">
+        <v>571</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>474</v>
+      </c>
+      <c r="E40">
+        <v>0.96082999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>474</v>
+      </c>
+      <c r="B41">
+        <v>492</v>
+      </c>
+      <c r="C41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" t="s">
+        <v>474</v>
+      </c>
+      <c r="E41">
+        <v>0.91117700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42">
+        <v>656</v>
+      </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" t="s">
+        <v>474</v>
+      </c>
+      <c r="E42">
+        <v>0.97378799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>474</v>
+      </c>
+      <c r="B43">
+        <v>554</v>
+      </c>
+      <c r="C43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" t="s">
+        <v>474</v>
+      </c>
+      <c r="E43">
+        <v>0.828426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B44">
+        <v>616</v>
+      </c>
+      <c r="C44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" t="s">
+        <v>474</v>
+      </c>
+      <c r="E44">
+        <v>0.94544700000000004</v>
       </c>
     </row>
   </sheetData>
@@ -43310,382 +43876,382 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15">
+    <row r="46" spans="1:1" ht="14">
       <c r="A46" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15">
+    <row r="47" spans="1:1" ht="14">
       <c r="A47" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15">
+    <row r="48" spans="1:1" ht="14">
       <c r="A48" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" ht="14">
       <c r="A49" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15">
+    <row r="50" spans="1:1" ht="14">
       <c r="A50" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" ht="14">
       <c r="A51" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" ht="14">
       <c r="A52" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" ht="14">
       <c r="A53" s="14">
         <v>0.11374407582938301</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" ht="14">
       <c r="A54" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" ht="14">
       <c r="A55" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" ht="14">
       <c r="A56" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" ht="14">
       <c r="A57" s="14">
         <v>2.8436018957345901E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" ht="14">
       <c r="A58" s="14">
         <v>2.3696682464454898E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" ht="14">
       <c r="A59" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" ht="14">
       <c r="A60" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" ht="14">
       <c r="A61" s="14">
         <v>3.7914691943127903E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="14">
       <c r="A62" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="14">
       <c r="A63" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" ht="14">
       <c r="A64" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15">
+    <row r="65" spans="1:1" ht="14">
       <c r="A65" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15">
+    <row r="66" spans="1:1" ht="14">
       <c r="A66" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15">
+    <row r="67" spans="1:1" ht="14">
       <c r="A67" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15">
+    <row r="68" spans="1:1" ht="14">
       <c r="A68" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15">
+    <row r="69" spans="1:1" ht="14">
       <c r="A69" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15">
+    <row r="70" spans="1:1" ht="14">
       <c r="A70" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15">
+    <row r="71" spans="1:1" ht="14">
       <c r="A71" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15">
+    <row r="72" spans="1:1" ht="14">
       <c r="A72" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15">
+    <row r="73" spans="1:1" ht="14">
       <c r="A73" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15">
+    <row r="74" spans="1:1" ht="14">
       <c r="A74" s="14">
         <v>1.42180094786729E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15">
+    <row r="75" spans="1:1" ht="14">
       <c r="A75" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15">
+    <row r="76" spans="1:1" ht="14">
       <c r="A76" s="14">
         <v>2.3696682464454898E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15">
+    <row r="77" spans="1:1" ht="14">
       <c r="A77" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15">
+    <row r="78" spans="1:1" ht="14">
       <c r="A78" s="14">
         <v>4.7393364928909901E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15">
+    <row r="79" spans="1:1" ht="14">
       <c r="A79" s="14">
         <v>1.42180094786729E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15">
+    <row r="80" spans="1:1" ht="14">
       <c r="A80" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15">
+    <row r="81" spans="1:1" ht="14">
       <c r="A81" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15">
+    <row r="82" spans="1:1" ht="14">
       <c r="A82" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15">
+    <row r="83" spans="1:1" ht="14">
       <c r="A83" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15">
+    <row r="84" spans="1:1" ht="14">
       <c r="A84" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15">
+    <row r="85" spans="1:1" ht="14">
       <c r="A85" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15">
+    <row r="86" spans="1:1" ht="14">
       <c r="A86" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15">
+    <row r="87" spans="1:1" ht="14">
       <c r="A87" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15">
+    <row r="88" spans="1:1" ht="14">
       <c r="A88" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15">
+    <row r="89" spans="1:1" ht="14">
       <c r="A89" s="14">
         <v>1.8957345971563899E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15">
+    <row r="90" spans="1:1" ht="14">
       <c r="A90" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15">
+    <row r="91" spans="1:1" ht="14">
       <c r="A91" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15">
+    <row r="92" spans="1:1" ht="14">
       <c r="A92" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15">
+    <row r="93" spans="1:1" ht="14">
       <c r="A93" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15">
+    <row r="94" spans="1:1" ht="14">
       <c r="A94" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15">
+    <row r="95" spans="1:1" ht="14">
       <c r="A95" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15">
+    <row r="96" spans="1:1" ht="14">
       <c r="A96" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15">
+    <row r="97" spans="1:1" ht="14">
       <c r="A97" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15">
+    <row r="98" spans="1:1" ht="14">
       <c r="A98" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15">
+    <row r="99" spans="1:1" ht="14">
       <c r="A99" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15">
+    <row r="100" spans="1:1" ht="14">
       <c r="A100" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15">
+    <row r="101" spans="1:1" ht="14">
       <c r="A101" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15">
+    <row r="102" spans="1:1" ht="14">
       <c r="A102" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15">
+    <row r="103" spans="1:1" ht="14">
       <c r="A103" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15">
+    <row r="104" spans="1:1" ht="14">
       <c r="A104" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15">
+    <row r="105" spans="1:1" ht="14">
       <c r="A105" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15">
+    <row r="106" spans="1:1" ht="14">
       <c r="A106" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15">
+    <row r="107" spans="1:1" ht="14">
       <c r="A107" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15">
+    <row r="108" spans="1:1" ht="14">
       <c r="A108" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15">
+    <row r="109" spans="1:1" ht="14">
       <c r="A109" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15">
+    <row r="110" spans="1:1" ht="14">
       <c r="A110" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15">
+    <row r="111" spans="1:1" ht="14">
       <c r="A111" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15">
+    <row r="112" spans="1:1" ht="14">
       <c r="A112" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15">
+    <row r="113" spans="1:1" ht="14">
       <c r="A113" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15">
+    <row r="114" spans="1:1" ht="14">
       <c r="A114" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15">
+    <row r="115" spans="1:1" ht="14">
       <c r="A115" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15">
+    <row r="116" spans="1:1" ht="14">
       <c r="A116" s="14">
         <v>9.4786729857819895E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15">
+    <row r="117" spans="1:1" ht="14">
       <c r="A117" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15">
+    <row r="118" spans="1:1" ht="14">
       <c r="A118" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15">
+    <row r="119" spans="1:1" ht="14">
       <c r="A119" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15">
+    <row r="120" spans="1:1" ht="14">
       <c r="A120" s="14">
         <v>4.7393364928909904E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15">
+    <row r="121" spans="1:1" ht="14">
       <c r="A121" s="14">
         <v>4.7393364928909904E-3</v>
       </c>

--- a/data/TaxVAMB_Source_Data.xlsx
+++ b/data/TaxVAMB_Source_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmb127/Documents/TaxVAMB_paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396D505-4016-ED46-9ACF-CFAA04E03304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E095DD8-6E3C-AD4E-B973-1F3A8758B9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2a" sheetId="19" r:id="rId1"/>
@@ -37410,8 +37410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E5CA5-3577-E94F-83BF-B08C0E7AE84F}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -42894,8 +42894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9B97EE-AE00-1A4B-A9E4-0F16B6DBC7FA}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -44145,6 +44145,9 @@
       <c r="D53" t="s">
         <v>518</v>
       </c>
+      <c r="E53">
+        <v>0.92284500000000003</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
@@ -44158,6 +44161,9 @@
       </c>
       <c r="D54" t="s">
         <v>518</v>
+      </c>
+      <c r="E54">
+        <v>0.99198799999999998</v>
       </c>
     </row>
     <row r="55" spans="1:5">

--- a/data/TaxVAMB_Source_Data.xlsx
+++ b/data/TaxVAMB_Source_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmb127/Documents/TaxVAMB_paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C9DCB-2D50-9C4F-86C4-80549DBE5CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE0D2D-5B77-CB49-90C7-67C5416110C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28760" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1660" yWindow="-23380" windowWidth="38400" windowHeight="23380" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2a" sheetId="19" r:id="rId1"/>
@@ -24,13 +24,13 @@
     <sheet name="Figure 6b" sheetId="7" r:id="rId9"/>
     <sheet name="Figure 6c" sheetId="8" r:id="rId10"/>
     <sheet name="Supplementary Figure 4" sheetId="15" r:id="rId11"/>
-    <sheet name="Supplementary Figure 5" sheetId="25" r:id="rId12"/>
-    <sheet name="Supplementary Figure 6" sheetId="10" r:id="rId13"/>
-    <sheet name="Supplementary Figure 7" sheetId="16" r:id="rId14"/>
-    <sheet name="Supplementary Figure 8" sheetId="24" r:id="rId15"/>
-    <sheet name="Supplementary Figure 9b" sheetId="12" r:id="rId16"/>
-    <sheet name="Supplementary Figure 10a" sheetId="13" r:id="rId17"/>
-    <sheet name="Supplementary Figure 10b" sheetId="27" r:id="rId18"/>
+    <sheet name="Supplementary Figure 5-6" sheetId="24" r:id="rId12"/>
+    <sheet name="Supplementary Figure 7" sheetId="25" r:id="rId13"/>
+    <sheet name="Supplementary Figure 8" sheetId="10" r:id="rId14"/>
+    <sheet name="Supplementary Figure 9" sheetId="16" r:id="rId15"/>
+    <sheet name="Supplementary Figure 10b" sheetId="12" r:id="rId16"/>
+    <sheet name="Supplementary Figure 11a" sheetId="13" r:id="rId17"/>
+    <sheet name="Supplementary Figure 11b" sheetId="27" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13680,7 +13680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BCD97C-3359-9C47-AB14-B0091E523971}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -14307,6 +14307,3705 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD03773-EAA3-B544-A37A-98227B841396}">
+  <dimension ref="A1:F184"/>
+  <sheetViews>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>98</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" t="s">
+        <v>514</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>315</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>97</v>
+      </c>
+      <c r="D27">
+        <v>288</v>
+      </c>
+      <c r="E27">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>250</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="F28">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29">
+        <v>169</v>
+      </c>
+      <c r="D29">
+        <v>538</v>
+      </c>
+      <c r="E29">
+        <v>153</v>
+      </c>
+      <c r="F29">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>205</v>
+      </c>
+      <c r="D30">
+        <v>534</v>
+      </c>
+      <c r="E30">
+        <v>201</v>
+      </c>
+      <c r="F30">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
+        <v>511</v>
+      </c>
+      <c r="C31">
+        <v>202</v>
+      </c>
+      <c r="D31">
+        <v>515</v>
+      </c>
+      <c r="E31">
+        <v>198</v>
+      </c>
+      <c r="F31">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>166</v>
+      </c>
+      <c r="D32">
+        <v>485</v>
+      </c>
+      <c r="E32">
+        <v>161</v>
+      </c>
+      <c r="F32">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34">
+        <v>118</v>
+      </c>
+      <c r="D34">
+        <v>446</v>
+      </c>
+      <c r="E34">
+        <v>117</v>
+      </c>
+      <c r="F34">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>274</v>
+      </c>
+      <c r="E35">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>338</v>
+      </c>
+      <c r="E37">
+        <v>89</v>
+      </c>
+      <c r="F37">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>142</v>
+      </c>
+      <c r="E38">
+        <v>27</v>
+      </c>
+      <c r="F38">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" t="s">
+        <v>512</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>311</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>515</v>
+      </c>
+      <c r="C42">
+        <v>106</v>
+      </c>
+      <c r="D42">
+        <v>419</v>
+      </c>
+      <c r="E42">
+        <v>102</v>
+      </c>
+      <c r="F42">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C43">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <v>179</v>
+      </c>
+      <c r="E43">
+        <v>33</v>
+      </c>
+      <c r="F43">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" t="s">
+        <v>517</v>
+      </c>
+      <c r="C44">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>382</v>
+      </c>
+      <c r="E44">
+        <v>57</v>
+      </c>
+      <c r="F44">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C45">
+        <v>122</v>
+      </c>
+      <c r="D45">
+        <v>517</v>
+      </c>
+      <c r="E45">
+        <v>120</v>
+      </c>
+      <c r="F45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>334</v>
+      </c>
+      <c r="E46">
+        <v>49</v>
+      </c>
+      <c r="F46">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47">
+        <v>121</v>
+      </c>
+      <c r="D47">
+        <v>486</v>
+      </c>
+      <c r="E47">
+        <v>119</v>
+      </c>
+      <c r="F47">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48">
+        <v>148</v>
+      </c>
+      <c r="D48">
+        <v>415</v>
+      </c>
+      <c r="E48">
+        <v>141</v>
+      </c>
+      <c r="F48">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>207</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>223</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" t="s">
+        <v>400</v>
+      </c>
+      <c r="C51">
+        <v>70</v>
+      </c>
+      <c r="D51">
+        <v>478</v>
+      </c>
+      <c r="E51">
+        <v>70</v>
+      </c>
+      <c r="F51">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <v>41</v>
+      </c>
+      <c r="D52">
+        <v>343</v>
+      </c>
+      <c r="E52">
+        <v>41</v>
+      </c>
+      <c r="F52">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" t="s">
+        <v>511</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>317</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>222</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>178</v>
+      </c>
+      <c r="E56">
+        <v>33</v>
+      </c>
+      <c r="F56">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>182</v>
+      </c>
+      <c r="E57">
+        <v>28</v>
+      </c>
+      <c r="F57">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>187</v>
+      </c>
+      <c r="E59">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>512</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <v>182</v>
+      </c>
+      <c r="E62">
+        <v>28</v>
+      </c>
+      <c r="F62">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>514</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" t="s">
+        <v>515</v>
+      </c>
+      <c r="C64">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>191</v>
+      </c>
+      <c r="E64">
+        <v>29</v>
+      </c>
+      <c r="F64">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>516</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>517</v>
+      </c>
+      <c r="C66">
+        <v>34</v>
+      </c>
+      <c r="D66">
+        <v>178</v>
+      </c>
+      <c r="E66">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" t="s">
+        <v>518</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>261</v>
+      </c>
+      <c r="E67">
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68">
+        <v>34</v>
+      </c>
+      <c r="D68">
+        <v>173</v>
+      </c>
+      <c r="E68">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>243</v>
+      </c>
+      <c r="E69">
+        <v>24</v>
+      </c>
+      <c r="F69">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70">
+        <v>41</v>
+      </c>
+      <c r="D70">
+        <v>259</v>
+      </c>
+      <c r="E70">
+        <v>41</v>
+      </c>
+      <c r="F70">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>468</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>122</v>
+      </c>
+      <c r="D71">
+        <v>262</v>
+      </c>
+      <c r="E71">
+        <v>119</v>
+      </c>
+      <c r="F71">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>468</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>61</v>
+      </c>
+      <c r="D72">
+        <v>174</v>
+      </c>
+      <c r="E72">
+        <v>56</v>
+      </c>
+      <c r="F72">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>87</v>
+      </c>
+      <c r="D73">
+        <v>205</v>
+      </c>
+      <c r="E73">
+        <v>83</v>
+      </c>
+      <c r="F73">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74" t="s">
+        <v>400</v>
+      </c>
+      <c r="C74">
+        <v>165</v>
+      </c>
+      <c r="D74">
+        <v>319</v>
+      </c>
+      <c r="E74">
+        <v>139</v>
+      </c>
+      <c r="F74">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>468</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>173</v>
+      </c>
+      <c r="D75">
+        <v>340</v>
+      </c>
+      <c r="E75">
+        <v>162</v>
+      </c>
+      <c r="F75">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B76" t="s">
+        <v>511</v>
+      </c>
+      <c r="C76">
+        <v>172</v>
+      </c>
+      <c r="D76">
+        <v>338</v>
+      </c>
+      <c r="E76">
+        <v>161</v>
+      </c>
+      <c r="F76">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>140</v>
+      </c>
+      <c r="D77">
+        <v>305</v>
+      </c>
+      <c r="E77">
+        <v>136</v>
+      </c>
+      <c r="F77">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>468</v>
+      </c>
+      <c r="B78" t="s">
+        <v>519</v>
+      </c>
+      <c r="C78">
+        <v>129</v>
+      </c>
+      <c r="D78">
+        <v>286</v>
+      </c>
+      <c r="E78">
+        <v>125</v>
+      </c>
+      <c r="F78">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79">
+        <v>84</v>
+      </c>
+      <c r="D79">
+        <v>250</v>
+      </c>
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="F79">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80">
+        <v>89</v>
+      </c>
+      <c r="D80">
+        <v>252</v>
+      </c>
+      <c r="E80">
+        <v>85</v>
+      </c>
+      <c r="F80">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>468</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81">
+        <v>106</v>
+      </c>
+      <c r="D81">
+        <v>265</v>
+      </c>
+      <c r="E81">
+        <v>102</v>
+      </c>
+      <c r="F81">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" t="s">
+        <v>513</v>
+      </c>
+      <c r="C82">
+        <v>95</v>
+      </c>
+      <c r="D82">
+        <v>268</v>
+      </c>
+      <c r="E82">
+        <v>89</v>
+      </c>
+      <c r="F82">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>468</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="C83">
+        <v>111</v>
+      </c>
+      <c r="D83">
+        <v>286</v>
+      </c>
+      <c r="E83">
+        <v>107</v>
+      </c>
+      <c r="F83">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>468</v>
+      </c>
+      <c r="B84" t="s">
+        <v>517</v>
+      </c>
+      <c r="C84">
+        <v>101</v>
+      </c>
+      <c r="D84">
+        <v>254</v>
+      </c>
+      <c r="E84">
+        <v>95</v>
+      </c>
+      <c r="F84">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85">
+        <v>91</v>
+      </c>
+      <c r="D85">
+        <v>231</v>
+      </c>
+      <c r="E85">
+        <v>85</v>
+      </c>
+      <c r="F85">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86">
+        <v>126</v>
+      </c>
+      <c r="D86">
+        <v>288</v>
+      </c>
+      <c r="E86">
+        <v>116</v>
+      </c>
+      <c r="F86">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>61</v>
+      </c>
+      <c r="D87">
+        <v>160</v>
+      </c>
+      <c r="E87">
+        <v>57</v>
+      </c>
+      <c r="F87">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>83</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>37</v>
+      </c>
+      <c r="D89">
+        <v>125</v>
+      </c>
+      <c r="E89">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>459</v>
+      </c>
+      <c r="B90" t="s">
+        <v>400</v>
+      </c>
+      <c r="C90">
+        <v>375</v>
+      </c>
+      <c r="D90">
+        <v>634</v>
+      </c>
+      <c r="E90">
+        <v>308</v>
+      </c>
+      <c r="F90">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>459</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>363</v>
+      </c>
+      <c r="D91">
+        <v>656</v>
+      </c>
+      <c r="E91">
+        <v>346</v>
+      </c>
+      <c r="F91">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>459</v>
+      </c>
+      <c r="B92" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92">
+        <v>362</v>
+      </c>
+      <c r="D92">
+        <v>656</v>
+      </c>
+      <c r="E92">
+        <v>345</v>
+      </c>
+      <c r="F92">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>459</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>340</v>
+      </c>
+      <c r="D93">
+        <v>610</v>
+      </c>
+      <c r="E93">
+        <v>324</v>
+      </c>
+      <c r="F93">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>459</v>
+      </c>
+      <c r="B94" t="s">
+        <v>519</v>
+      </c>
+      <c r="C94">
+        <v>340</v>
+      </c>
+      <c r="D94">
+        <v>610</v>
+      </c>
+      <c r="E94">
+        <v>324</v>
+      </c>
+      <c r="F94">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>459</v>
+      </c>
+      <c r="B95" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95">
+        <v>169</v>
+      </c>
+      <c r="D95">
+        <v>546</v>
+      </c>
+      <c r="E95">
+        <v>165</v>
+      </c>
+      <c r="F95">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>459</v>
+      </c>
+      <c r="B96" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96">
+        <v>230</v>
+      </c>
+      <c r="D96">
+        <v>514</v>
+      </c>
+      <c r="E96">
+        <v>225</v>
+      </c>
+      <c r="F96">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>459</v>
+      </c>
+      <c r="B97" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97">
+        <v>236</v>
+      </c>
+      <c r="D97">
+        <v>563</v>
+      </c>
+      <c r="E97">
+        <v>229</v>
+      </c>
+      <c r="F97">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>459</v>
+      </c>
+      <c r="B98" t="s">
+        <v>513</v>
+      </c>
+      <c r="C98">
+        <v>232</v>
+      </c>
+      <c r="D98">
+        <v>520</v>
+      </c>
+      <c r="E98">
+        <v>227</v>
+      </c>
+      <c r="F98">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>459</v>
+      </c>
+      <c r="B99" t="s">
+        <v>515</v>
+      </c>
+      <c r="C99">
+        <v>242</v>
+      </c>
+      <c r="D99">
+        <v>571</v>
+      </c>
+      <c r="E99">
+        <v>235</v>
+      </c>
+      <c r="F99">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>459</v>
+      </c>
+      <c r="B100" t="s">
+        <v>517</v>
+      </c>
+      <c r="C100">
+        <v>210</v>
+      </c>
+      <c r="D100">
+        <v>492</v>
+      </c>
+      <c r="E100">
+        <v>200</v>
+      </c>
+      <c r="F100">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>459</v>
+      </c>
+      <c r="B101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101">
+        <v>207</v>
+      </c>
+      <c r="D101">
+        <v>484</v>
+      </c>
+      <c r="E101">
+        <v>197</v>
+      </c>
+      <c r="F101">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>459</v>
+      </c>
+      <c r="B102" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102">
+        <v>293</v>
+      </c>
+      <c r="D102">
+        <v>615</v>
+      </c>
+      <c r="E102">
+        <v>280</v>
+      </c>
+      <c r="F102">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>509</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>177</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>509</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>33</v>
+      </c>
+      <c r="D104">
+        <v>254</v>
+      </c>
+      <c r="E104">
+        <v>23</v>
+      </c>
+      <c r="F104">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>509</v>
+      </c>
+      <c r="B105" t="s">
+        <v>400</v>
+      </c>
+      <c r="C105">
+        <v>489</v>
+      </c>
+      <c r="D105">
+        <v>1618</v>
+      </c>
+      <c r="E105">
+        <v>421</v>
+      </c>
+      <c r="F105">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>509</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106">
+        <v>494</v>
+      </c>
+      <c r="D106">
+        <v>1760</v>
+      </c>
+      <c r="E106">
+        <v>472</v>
+      </c>
+      <c r="F106">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>509</v>
+      </c>
+      <c r="B107" t="s">
+        <v>511</v>
+      </c>
+      <c r="C107">
+        <v>494</v>
+      </c>
+      <c r="D107">
+        <v>1760</v>
+      </c>
+      <c r="E107">
+        <v>472</v>
+      </c>
+      <c r="F107">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>509</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>480</v>
+      </c>
+      <c r="D108">
+        <v>1694</v>
+      </c>
+      <c r="E108">
+        <v>431</v>
+      </c>
+      <c r="F108">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>509</v>
+      </c>
+      <c r="B109" t="s">
+        <v>519</v>
+      </c>
+      <c r="C109">
+        <v>476</v>
+      </c>
+      <c r="D109">
+        <v>1683</v>
+      </c>
+      <c r="E109">
+        <v>428</v>
+      </c>
+      <c r="F109">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>509</v>
+      </c>
+      <c r="B110" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110">
+        <v>399</v>
+      </c>
+      <c r="D110">
+        <v>1367</v>
+      </c>
+      <c r="E110">
+        <v>327</v>
+      </c>
+      <c r="F110">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>509</v>
+      </c>
+      <c r="B111" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111">
+        <v>369</v>
+      </c>
+      <c r="D111">
+        <v>1323</v>
+      </c>
+      <c r="E111">
+        <v>346</v>
+      </c>
+      <c r="F111">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>509</v>
+      </c>
+      <c r="B112" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112">
+        <v>438</v>
+      </c>
+      <c r="D112">
+        <v>1613</v>
+      </c>
+      <c r="E112">
+        <v>421</v>
+      </c>
+      <c r="F112">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>509</v>
+      </c>
+      <c r="B113" t="s">
+        <v>513</v>
+      </c>
+      <c r="C113">
+        <v>374</v>
+      </c>
+      <c r="D113">
+        <v>1336</v>
+      </c>
+      <c r="E113">
+        <v>351</v>
+      </c>
+      <c r="F113">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>509</v>
+      </c>
+      <c r="B114" t="s">
+        <v>515</v>
+      </c>
+      <c r="C114">
+        <v>440</v>
+      </c>
+      <c r="D114">
+        <v>1627</v>
+      </c>
+      <c r="E114">
+        <v>423</v>
+      </c>
+      <c r="F114">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>509</v>
+      </c>
+      <c r="B115" t="s">
+        <v>517</v>
+      </c>
+      <c r="C115">
+        <v>430</v>
+      </c>
+      <c r="D115">
+        <v>1613</v>
+      </c>
+      <c r="E115">
+        <v>409</v>
+      </c>
+      <c r="F115">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>509</v>
+      </c>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116">
+        <v>428</v>
+      </c>
+      <c r="D116">
+        <v>1601</v>
+      </c>
+      <c r="E116">
+        <v>407</v>
+      </c>
+      <c r="F116">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>509</v>
+      </c>
+      <c r="B117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117">
+        <v>431</v>
+      </c>
+      <c r="D117">
+        <v>1591</v>
+      </c>
+      <c r="E117">
+        <v>402</v>
+      </c>
+      <c r="F117">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>411</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <v>203</v>
+      </c>
+      <c r="E118">
+        <v>25</v>
+      </c>
+      <c r="F118">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>411</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>21</v>
+      </c>
+      <c r="D119">
+        <v>136</v>
+      </c>
+      <c r="E119">
+        <v>21</v>
+      </c>
+      <c r="F119">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>411</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>34</v>
+      </c>
+      <c r="D120">
+        <v>250</v>
+      </c>
+      <c r="E120">
+        <v>34</v>
+      </c>
+      <c r="F120">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>411</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121">
+        <v>34</v>
+      </c>
+      <c r="D121">
+        <v>283</v>
+      </c>
+      <c r="E121">
+        <v>34</v>
+      </c>
+      <c r="F121">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>411</v>
+      </c>
+      <c r="B122" t="s">
+        <v>511</v>
+      </c>
+      <c r="C122">
+        <v>59</v>
+      </c>
+      <c r="D122">
+        <v>338</v>
+      </c>
+      <c r="E122">
+        <v>59</v>
+      </c>
+      <c r="F122">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>411</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>41</v>
+      </c>
+      <c r="D123">
+        <v>321</v>
+      </c>
+      <c r="E123">
+        <v>41</v>
+      </c>
+      <c r="F123">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>411</v>
+      </c>
+      <c r="B124" t="s">
+        <v>519</v>
+      </c>
+      <c r="C124">
+        <v>50</v>
+      </c>
+      <c r="D124">
+        <v>211</v>
+      </c>
+      <c r="E124">
+        <v>49</v>
+      </c>
+      <c r="F124">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125" t="s">
+        <v>400</v>
+      </c>
+      <c r="C125">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>190</v>
+      </c>
+      <c r="E125">
+        <v>25</v>
+      </c>
+      <c r="F125">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>179</v>
+      </c>
+      <c r="D126">
+        <v>488</v>
+      </c>
+      <c r="E126">
+        <v>178</v>
+      </c>
+      <c r="F126">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>39</v>
+      </c>
+      <c r="D127">
+        <v>179</v>
+      </c>
+      <c r="E127">
+        <v>38</v>
+      </c>
+      <c r="F127">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128">
+        <v>84</v>
+      </c>
+      <c r="D128">
+        <v>269</v>
+      </c>
+      <c r="E128">
+        <v>82</v>
+      </c>
+      <c r="F128">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129">
+        <v>133</v>
+      </c>
+      <c r="D129">
+        <v>366</v>
+      </c>
+      <c r="E129">
+        <v>132</v>
+      </c>
+      <c r="F129">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" t="s">
+        <v>511</v>
+      </c>
+      <c r="C130">
+        <v>132</v>
+      </c>
+      <c r="D130">
+        <v>355</v>
+      </c>
+      <c r="E130">
+        <v>131</v>
+      </c>
+      <c r="F130">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>133</v>
+      </c>
+      <c r="D131">
+        <v>370</v>
+      </c>
+      <c r="E131">
+        <v>129</v>
+      </c>
+      <c r="F131">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" t="s">
+        <v>519</v>
+      </c>
+      <c r="C132">
+        <v>128</v>
+      </c>
+      <c r="D132">
+        <v>352</v>
+      </c>
+      <c r="E132">
+        <v>125</v>
+      </c>
+      <c r="F132">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133">
+        <v>80</v>
+      </c>
+      <c r="D133">
+        <v>276</v>
+      </c>
+      <c r="E133">
+        <v>80</v>
+      </c>
+      <c r="F133">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134">
+        <v>71</v>
+      </c>
+      <c r="D134">
+        <v>266</v>
+      </c>
+      <c r="E134">
+        <v>70</v>
+      </c>
+      <c r="F134">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>223</v>
+      </c>
+      <c r="B135" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135">
+        <v>120</v>
+      </c>
+      <c r="D135">
+        <v>336</v>
+      </c>
+      <c r="E135">
+        <v>120</v>
+      </c>
+      <c r="F135">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>223</v>
+      </c>
+      <c r="B136" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136">
+        <v>97</v>
+      </c>
+      <c r="D136">
+        <v>299</v>
+      </c>
+      <c r="E136">
+        <v>96</v>
+      </c>
+      <c r="F136">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137">
+        <v>114</v>
+      </c>
+      <c r="D137">
+        <v>343</v>
+      </c>
+      <c r="E137">
+        <v>112</v>
+      </c>
+      <c r="F137">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" t="s">
+        <v>247</v>
+      </c>
+      <c r="C138">
+        <v>59</v>
+      </c>
+      <c r="D138">
+        <v>263</v>
+      </c>
+      <c r="E138">
+        <v>59</v>
+      </c>
+      <c r="F138">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>223</v>
+      </c>
+      <c r="B139" t="s">
+        <v>512</v>
+      </c>
+      <c r="C139">
+        <v>82</v>
+      </c>
+      <c r="D139">
+        <v>288</v>
+      </c>
+      <c r="E139">
+        <v>82</v>
+      </c>
+      <c r="F139">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140">
+        <v>125</v>
+      </c>
+      <c r="D140">
+        <v>363</v>
+      </c>
+      <c r="E140">
+        <v>125</v>
+      </c>
+      <c r="F140">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>223</v>
+      </c>
+      <c r="B141" t="s">
+        <v>514</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>316</v>
+      </c>
+      <c r="E141">
+        <v>99</v>
+      </c>
+      <c r="F141">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" t="s">
+        <v>515</v>
+      </c>
+      <c r="C142">
+        <v>120</v>
+      </c>
+      <c r="D142">
+        <v>366</v>
+      </c>
+      <c r="E142">
+        <v>118</v>
+      </c>
+      <c r="F142">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" t="s">
+        <v>516</v>
+      </c>
+      <c r="C143">
+        <v>63</v>
+      </c>
+      <c r="D143">
+        <v>278</v>
+      </c>
+      <c r="E143">
+        <v>63</v>
+      </c>
+      <c r="F143">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>223</v>
+      </c>
+      <c r="B144" t="s">
+        <v>517</v>
+      </c>
+      <c r="C144">
+        <v>111</v>
+      </c>
+      <c r="D144">
+        <v>335</v>
+      </c>
+      <c r="E144">
+        <v>111</v>
+      </c>
+      <c r="F144">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>223</v>
+      </c>
+      <c r="B145" t="s">
+        <v>518</v>
+      </c>
+      <c r="C145">
+        <v>136</v>
+      </c>
+      <c r="D145">
+        <v>354</v>
+      </c>
+      <c r="E145">
+        <v>136</v>
+      </c>
+      <c r="F145">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>223</v>
+      </c>
+      <c r="B146" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146">
+        <v>109</v>
+      </c>
+      <c r="D146">
+        <v>324</v>
+      </c>
+      <c r="E146">
+        <v>109</v>
+      </c>
+      <c r="F146">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147">
+        <v>125</v>
+      </c>
+      <c r="D147">
+        <v>324</v>
+      </c>
+      <c r="E147">
+        <v>125</v>
+      </c>
+      <c r="F147">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>223</v>
+      </c>
+      <c r="B148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148">
+        <v>120</v>
+      </c>
+      <c r="D148">
+        <v>338</v>
+      </c>
+      <c r="E148">
+        <v>120</v>
+      </c>
+      <c r="F148">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>31</v>
+      </c>
+      <c r="D149">
+        <v>244</v>
+      </c>
+      <c r="E149">
+        <v>31</v>
+      </c>
+      <c r="F149">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>40</v>
+      </c>
+      <c r="D150">
+        <v>213</v>
+      </c>
+      <c r="E150">
+        <v>40</v>
+      </c>
+      <c r="F150">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>33</v>
+      </c>
+      <c r="D151">
+        <v>322</v>
+      </c>
+      <c r="E151">
+        <v>33</v>
+      </c>
+      <c r="F151">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152">
+        <v>63</v>
+      </c>
+      <c r="D152">
+        <v>360</v>
+      </c>
+      <c r="E152">
+        <v>63</v>
+      </c>
+      <c r="F152">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" t="s">
+        <v>511</v>
+      </c>
+      <c r="C153">
+        <v>54</v>
+      </c>
+      <c r="D153">
+        <v>387</v>
+      </c>
+      <c r="E153">
+        <v>54</v>
+      </c>
+      <c r="F153">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>71</v>
+      </c>
+      <c r="D154">
+        <v>409</v>
+      </c>
+      <c r="E154">
+        <v>71</v>
+      </c>
+      <c r="F154">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" t="s">
+        <v>519</v>
+      </c>
+      <c r="C155">
+        <v>78</v>
+      </c>
+      <c r="D155">
+        <v>388</v>
+      </c>
+      <c r="E155">
+        <v>78</v>
+      </c>
+      <c r="F155">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" t="s">
+        <v>400</v>
+      </c>
+      <c r="C156">
+        <v>34</v>
+      </c>
+      <c r="D156">
+        <v>207</v>
+      </c>
+      <c r="E156">
+        <v>34</v>
+      </c>
+      <c r="F156">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>227</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>227</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>12</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>227</v>
+      </c>
+      <c r="B161" t="s">
+        <v>511</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
+      <c r="F161">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>227</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>7</v>
+      </c>
+      <c r="F162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>227</v>
+      </c>
+      <c r="B163" t="s">
+        <v>519</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>12</v>
+      </c>
+      <c r="E163">
+        <v>7</v>
+      </c>
+      <c r="F163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>227</v>
+      </c>
+      <c r="B164" t="s">
+        <v>234</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+      <c r="D164">
+        <v>12</v>
+      </c>
+      <c r="E164">
+        <v>8</v>
+      </c>
+      <c r="F164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>227</v>
+      </c>
+      <c r="B165" t="s">
+        <v>210</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>11</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" t="s">
+        <v>239</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>12</v>
+      </c>
+      <c r="E166">
+        <v>8</v>
+      </c>
+      <c r="F166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>227</v>
+      </c>
+      <c r="B167" t="s">
+        <v>241</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>11</v>
+      </c>
+      <c r="E167">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>227</v>
+      </c>
+      <c r="B168" t="s">
+        <v>245</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>12</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>227</v>
+      </c>
+      <c r="B169" t="s">
+        <v>247</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>13</v>
+      </c>
+      <c r="E169">
+        <v>7</v>
+      </c>
+      <c r="F169">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>227</v>
+      </c>
+      <c r="B170" t="s">
+        <v>512</v>
+      </c>
+      <c r="C170">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>12</v>
+      </c>
+      <c r="E170">
+        <v>8</v>
+      </c>
+      <c r="F170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>227</v>
+      </c>
+      <c r="B171" t="s">
+        <v>513</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>12</v>
+      </c>
+      <c r="E171">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" t="s">
+        <v>514</v>
+      </c>
+      <c r="C172">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>11</v>
+      </c>
+      <c r="E172">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>227</v>
+      </c>
+      <c r="B173" t="s">
+        <v>515</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>12</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <v>13</v>
+      </c>
+      <c r="E174">
+        <v>7</v>
+      </c>
+      <c r="F174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>227</v>
+      </c>
+      <c r="B175" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>12</v>
+      </c>
+      <c r="E175">
+        <v>8</v>
+      </c>
+      <c r="F175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>227</v>
+      </c>
+      <c r="B176" t="s">
+        <v>518</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>13</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>227</v>
+      </c>
+      <c r="B177" t="s">
+        <v>251</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>12</v>
+      </c>
+      <c r="E177">
+        <v>8</v>
+      </c>
+      <c r="F177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>227</v>
+      </c>
+      <c r="B178" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>13</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>227</v>
+      </c>
+      <c r="B179" t="s">
+        <v>216</v>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+      <c r="D179">
+        <v>12</v>
+      </c>
+      <c r="E179">
+        <v>7</v>
+      </c>
+      <c r="F179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>24</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>222</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B182" t="s">
+        <v>400</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>128</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="F182">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>222</v>
+      </c>
+      <c r="B183" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592E8EBD-0282-F941-B465-42DD05240390}">
   <dimension ref="A1:J261"/>
   <sheetViews>
@@ -22676,7 +26375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22851,11 +26550,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E37AB-6A76-774E-889D-1138ECDECC2C}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A75"/>
     </sheetView>
   </sheetViews>
@@ -24626,3705 +28325,6 @@
       </c>
       <c r="G75" t="s">
         <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD03773-EAA3-B544-A37A-98227B841396}">
-  <dimension ref="A1:F184"/>
-  <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>65</v>
-      </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>95</v>
-      </c>
-      <c r="E5">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>98</v>
-      </c>
-      <c r="E6">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>64</v>
-      </c>
-      <c r="E10">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>33</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" t="s">
-        <v>514</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>71</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" t="s">
-        <v>516</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>36</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" t="s">
-        <v>517</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>45</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>78</v>
-      </c>
-      <c r="E21">
-        <v>28</v>
-      </c>
-      <c r="F21">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>74</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>77</v>
-      </c>
-      <c r="E24">
-        <v>25</v>
-      </c>
-      <c r="F24">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>315</v>
-      </c>
-      <c r="E26">
-        <v>26</v>
-      </c>
-      <c r="F26">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>97</v>
-      </c>
-      <c r="D27">
-        <v>288</v>
-      </c>
-      <c r="E27">
-        <v>96</v>
-      </c>
-      <c r="F27">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>66</v>
-      </c>
-      <c r="D28">
-        <v>250</v>
-      </c>
-      <c r="E28">
-        <v>65</v>
-      </c>
-      <c r="F28">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" t="s">
-        <v>400</v>
-      </c>
-      <c r="C29">
-        <v>169</v>
-      </c>
-      <c r="D29">
-        <v>538</v>
-      </c>
-      <c r="E29">
-        <v>153</v>
-      </c>
-      <c r="F29">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30">
-        <v>205</v>
-      </c>
-      <c r="D30">
-        <v>534</v>
-      </c>
-      <c r="E30">
-        <v>201</v>
-      </c>
-      <c r="F30">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31">
-        <v>202</v>
-      </c>
-      <c r="D31">
-        <v>515</v>
-      </c>
-      <c r="E31">
-        <v>198</v>
-      </c>
-      <c r="F31">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>166</v>
-      </c>
-      <c r="D32">
-        <v>485</v>
-      </c>
-      <c r="E32">
-        <v>161</v>
-      </c>
-      <c r="F32">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>27</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34">
-        <v>118</v>
-      </c>
-      <c r="D34">
-        <v>446</v>
-      </c>
-      <c r="E34">
-        <v>117</v>
-      </c>
-      <c r="F34">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35">
-        <v>46</v>
-      </c>
-      <c r="D35">
-        <v>274</v>
-      </c>
-      <c r="E35">
-        <v>45</v>
-      </c>
-      <c r="F35">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>55</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>225</v>
-      </c>
-      <c r="B37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37">
-        <v>91</v>
-      </c>
-      <c r="D37">
-        <v>338</v>
-      </c>
-      <c r="E37">
-        <v>89</v>
-      </c>
-      <c r="F37">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38">
-        <v>27</v>
-      </c>
-      <c r="D38">
-        <v>142</v>
-      </c>
-      <c r="E38">
-        <v>27</v>
-      </c>
-      <c r="F38">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>225</v>
-      </c>
-      <c r="B39" t="s">
-        <v>512</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>37</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s">
-        <v>513</v>
-      </c>
-      <c r="C40">
-        <v>51</v>
-      </c>
-      <c r="D40">
-        <v>311</v>
-      </c>
-      <c r="E40">
-        <v>50</v>
-      </c>
-      <c r="F40">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" t="s">
-        <v>514</v>
-      </c>
-      <c r="C41">
-        <v>9</v>
-      </c>
-      <c r="D41">
-        <v>61</v>
-      </c>
-      <c r="E41">
-        <v>7</v>
-      </c>
-      <c r="F41">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" t="s">
-        <v>515</v>
-      </c>
-      <c r="C42">
-        <v>106</v>
-      </c>
-      <c r="D42">
-        <v>419</v>
-      </c>
-      <c r="E42">
-        <v>102</v>
-      </c>
-      <c r="F42">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" t="s">
-        <v>516</v>
-      </c>
-      <c r="C43">
-        <v>33</v>
-      </c>
-      <c r="D43">
-        <v>179</v>
-      </c>
-      <c r="E43">
-        <v>33</v>
-      </c>
-      <c r="F43">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" t="s">
-        <v>517</v>
-      </c>
-      <c r="C44">
-        <v>58</v>
-      </c>
-      <c r="D44">
-        <v>382</v>
-      </c>
-      <c r="E44">
-        <v>57</v>
-      </c>
-      <c r="F44">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C45">
-        <v>122</v>
-      </c>
-      <c r="D45">
-        <v>517</v>
-      </c>
-      <c r="E45">
-        <v>120</v>
-      </c>
-      <c r="F45">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" t="s">
-        <v>251</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46">
-        <v>334</v>
-      </c>
-      <c r="E46">
-        <v>49</v>
-      </c>
-      <c r="F46">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47">
-        <v>121</v>
-      </c>
-      <c r="D47">
-        <v>486</v>
-      </c>
-      <c r="E47">
-        <v>119</v>
-      </c>
-      <c r="F47">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48">
-        <v>148</v>
-      </c>
-      <c r="D48">
-        <v>415</v>
-      </c>
-      <c r="E48">
-        <v>141</v>
-      </c>
-      <c r="F48">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>25</v>
-      </c>
-      <c r="D49">
-        <v>207</v>
-      </c>
-      <c r="E49">
-        <v>24</v>
-      </c>
-      <c r="F49">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-      <c r="D50">
-        <v>223</v>
-      </c>
-      <c r="E50">
-        <v>22</v>
-      </c>
-      <c r="F50">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>226</v>
-      </c>
-      <c r="B51" t="s">
-        <v>400</v>
-      </c>
-      <c r="C51">
-        <v>70</v>
-      </c>
-      <c r="D51">
-        <v>478</v>
-      </c>
-      <c r="E51">
-        <v>70</v>
-      </c>
-      <c r="F51">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52">
-        <v>41</v>
-      </c>
-      <c r="D52">
-        <v>343</v>
-      </c>
-      <c r="E52">
-        <v>41</v>
-      </c>
-      <c r="F52">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>226</v>
-      </c>
-      <c r="B53" t="s">
-        <v>511</v>
-      </c>
-      <c r="C53">
-        <v>40</v>
-      </c>
-      <c r="D53">
-        <v>317</v>
-      </c>
-      <c r="E53">
-        <v>40</v>
-      </c>
-      <c r="F53">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>226</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>40</v>
-      </c>
-      <c r="D54">
-        <v>222</v>
-      </c>
-      <c r="E54">
-        <v>38</v>
-      </c>
-      <c r="F54">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" t="s">
-        <v>234</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56">
-        <v>33</v>
-      </c>
-      <c r="D56">
-        <v>178</v>
-      </c>
-      <c r="E56">
-        <v>33</v>
-      </c>
-      <c r="F56">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57">
-        <v>28</v>
-      </c>
-      <c r="D57">
-        <v>182</v>
-      </c>
-      <c r="E57">
-        <v>28</v>
-      </c>
-      <c r="F57">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>226</v>
-      </c>
-      <c r="B58" t="s">
-        <v>241</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>14</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>226</v>
-      </c>
-      <c r="B59" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59">
-        <v>29</v>
-      </c>
-      <c r="D59">
-        <v>187</v>
-      </c>
-      <c r="E59">
-        <v>29</v>
-      </c>
-      <c r="F59">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-      <c r="D60">
-        <v>48</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-      <c r="F60">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="C62">
-        <v>28</v>
-      </c>
-      <c r="D62">
-        <v>182</v>
-      </c>
-      <c r="E62">
-        <v>28</v>
-      </c>
-      <c r="F62">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" t="s">
-        <v>514</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>16</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>226</v>
-      </c>
-      <c r="B64" t="s">
-        <v>515</v>
-      </c>
-      <c r="C64">
-        <v>29</v>
-      </c>
-      <c r="D64">
-        <v>191</v>
-      </c>
-      <c r="E64">
-        <v>29</v>
-      </c>
-      <c r="F64">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>226</v>
-      </c>
-      <c r="B65" t="s">
-        <v>516</v>
-      </c>
-      <c r="C65">
-        <v>7</v>
-      </c>
-      <c r="D65">
-        <v>50</v>
-      </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-      <c r="F65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>226</v>
-      </c>
-      <c r="B66" t="s">
-        <v>517</v>
-      </c>
-      <c r="C66">
-        <v>34</v>
-      </c>
-      <c r="D66">
-        <v>178</v>
-      </c>
-      <c r="E66">
-        <v>34</v>
-      </c>
-      <c r="F66">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>226</v>
-      </c>
-      <c r="B67" t="s">
-        <v>518</v>
-      </c>
-      <c r="C67">
-        <v>25</v>
-      </c>
-      <c r="D67">
-        <v>261</v>
-      </c>
-      <c r="E67">
-        <v>25</v>
-      </c>
-      <c r="F67">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>226</v>
-      </c>
-      <c r="B68" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68">
-        <v>34</v>
-      </c>
-      <c r="D68">
-        <v>173</v>
-      </c>
-      <c r="E68">
-        <v>34</v>
-      </c>
-      <c r="F68">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>226</v>
-      </c>
-      <c r="B69" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69">
-        <v>24</v>
-      </c>
-      <c r="D69">
-        <v>243</v>
-      </c>
-      <c r="E69">
-        <v>24</v>
-      </c>
-      <c r="F69">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C70">
-        <v>41</v>
-      </c>
-      <c r="D70">
-        <v>259</v>
-      </c>
-      <c r="E70">
-        <v>41</v>
-      </c>
-      <c r="F70">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71">
-        <v>122</v>
-      </c>
-      <c r="D71">
-        <v>262</v>
-      </c>
-      <c r="E71">
-        <v>119</v>
-      </c>
-      <c r="F71">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>468</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>61</v>
-      </c>
-      <c r="D72">
-        <v>174</v>
-      </c>
-      <c r="E72">
-        <v>56</v>
-      </c>
-      <c r="F72">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>468</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>87</v>
-      </c>
-      <c r="D73">
-        <v>205</v>
-      </c>
-      <c r="E73">
-        <v>83</v>
-      </c>
-      <c r="F73">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>468</v>
-      </c>
-      <c r="B74" t="s">
-        <v>400</v>
-      </c>
-      <c r="C74">
-        <v>165</v>
-      </c>
-      <c r="D74">
-        <v>319</v>
-      </c>
-      <c r="E74">
-        <v>139</v>
-      </c>
-      <c r="F74">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>468</v>
-      </c>
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75">
-        <v>173</v>
-      </c>
-      <c r="D75">
-        <v>340</v>
-      </c>
-      <c r="E75">
-        <v>162</v>
-      </c>
-      <c r="F75">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>468</v>
-      </c>
-      <c r="B76" t="s">
-        <v>511</v>
-      </c>
-      <c r="C76">
-        <v>172</v>
-      </c>
-      <c r="D76">
-        <v>338</v>
-      </c>
-      <c r="E76">
-        <v>161</v>
-      </c>
-      <c r="F76">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>468</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>140</v>
-      </c>
-      <c r="D77">
-        <v>305</v>
-      </c>
-      <c r="E77">
-        <v>136</v>
-      </c>
-      <c r="F77">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>468</v>
-      </c>
-      <c r="B78" t="s">
-        <v>519</v>
-      </c>
-      <c r="C78">
-        <v>129</v>
-      </c>
-      <c r="D78">
-        <v>286</v>
-      </c>
-      <c r="E78">
-        <v>125</v>
-      </c>
-      <c r="F78">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>468</v>
-      </c>
-      <c r="B79" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79">
-        <v>84</v>
-      </c>
-      <c r="D79">
-        <v>250</v>
-      </c>
-      <c r="E79">
-        <v>84</v>
-      </c>
-      <c r="F79">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" t="s">
-        <v>239</v>
-      </c>
-      <c r="C80">
-        <v>89</v>
-      </c>
-      <c r="D80">
-        <v>252</v>
-      </c>
-      <c r="E80">
-        <v>85</v>
-      </c>
-      <c r="F80">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>468</v>
-      </c>
-      <c r="B81" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81">
-        <v>106</v>
-      </c>
-      <c r="D81">
-        <v>265</v>
-      </c>
-      <c r="E81">
-        <v>102</v>
-      </c>
-      <c r="F81">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>468</v>
-      </c>
-      <c r="B82" t="s">
-        <v>513</v>
-      </c>
-      <c r="C82">
-        <v>95</v>
-      </c>
-      <c r="D82">
-        <v>268</v>
-      </c>
-      <c r="E82">
-        <v>89</v>
-      </c>
-      <c r="F82">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>468</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="C83">
-        <v>111</v>
-      </c>
-      <c r="D83">
-        <v>286</v>
-      </c>
-      <c r="E83">
-        <v>107</v>
-      </c>
-      <c r="F83">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>468</v>
-      </c>
-      <c r="B84" t="s">
-        <v>517</v>
-      </c>
-      <c r="C84">
-        <v>101</v>
-      </c>
-      <c r="D84">
-        <v>254</v>
-      </c>
-      <c r="E84">
-        <v>95</v>
-      </c>
-      <c r="F84">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C85">
-        <v>91</v>
-      </c>
-      <c r="D85">
-        <v>231</v>
-      </c>
-      <c r="E85">
-        <v>85</v>
-      </c>
-      <c r="F85">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86">
-        <v>126</v>
-      </c>
-      <c r="D86">
-        <v>288</v>
-      </c>
-      <c r="E86">
-        <v>116</v>
-      </c>
-      <c r="F86">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87">
-        <v>61</v>
-      </c>
-      <c r="D87">
-        <v>160</v>
-      </c>
-      <c r="E87">
-        <v>57</v>
-      </c>
-      <c r="F87">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88">
-        <v>20</v>
-      </c>
-      <c r="D88">
-        <v>83</v>
-      </c>
-      <c r="E88">
-        <v>18</v>
-      </c>
-      <c r="F88">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89">
-        <v>37</v>
-      </c>
-      <c r="D89">
-        <v>125</v>
-      </c>
-      <c r="E89">
-        <v>35</v>
-      </c>
-      <c r="F89">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>459</v>
-      </c>
-      <c r="B90" t="s">
-        <v>400</v>
-      </c>
-      <c r="C90">
-        <v>375</v>
-      </c>
-      <c r="D90">
-        <v>634</v>
-      </c>
-      <c r="E90">
-        <v>308</v>
-      </c>
-      <c r="F90">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>459</v>
-      </c>
-      <c r="B91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C91">
-        <v>363</v>
-      </c>
-      <c r="D91">
-        <v>656</v>
-      </c>
-      <c r="E91">
-        <v>346</v>
-      </c>
-      <c r="F91">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>459</v>
-      </c>
-      <c r="B92" t="s">
-        <v>511</v>
-      </c>
-      <c r="C92">
-        <v>362</v>
-      </c>
-      <c r="D92">
-        <v>656</v>
-      </c>
-      <c r="E92">
-        <v>345</v>
-      </c>
-      <c r="F92">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>459</v>
-      </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93">
-        <v>340</v>
-      </c>
-      <c r="D93">
-        <v>610</v>
-      </c>
-      <c r="E93">
-        <v>324</v>
-      </c>
-      <c r="F93">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>459</v>
-      </c>
-      <c r="B94" t="s">
-        <v>519</v>
-      </c>
-      <c r="C94">
-        <v>340</v>
-      </c>
-      <c r="D94">
-        <v>610</v>
-      </c>
-      <c r="E94">
-        <v>324</v>
-      </c>
-      <c r="F94">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>459</v>
-      </c>
-      <c r="B95" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95">
-        <v>169</v>
-      </c>
-      <c r="D95">
-        <v>546</v>
-      </c>
-      <c r="E95">
-        <v>165</v>
-      </c>
-      <c r="F95">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>459</v>
-      </c>
-      <c r="B96" t="s">
-        <v>239</v>
-      </c>
-      <c r="C96">
-        <v>230</v>
-      </c>
-      <c r="D96">
-        <v>514</v>
-      </c>
-      <c r="E96">
-        <v>225</v>
-      </c>
-      <c r="F96">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>459</v>
-      </c>
-      <c r="B97" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97">
-        <v>236</v>
-      </c>
-      <c r="D97">
-        <v>563</v>
-      </c>
-      <c r="E97">
-        <v>229</v>
-      </c>
-      <c r="F97">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>459</v>
-      </c>
-      <c r="B98" t="s">
-        <v>513</v>
-      </c>
-      <c r="C98">
-        <v>232</v>
-      </c>
-      <c r="D98">
-        <v>520</v>
-      </c>
-      <c r="E98">
-        <v>227</v>
-      </c>
-      <c r="F98">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>459</v>
-      </c>
-      <c r="B99" t="s">
-        <v>515</v>
-      </c>
-      <c r="C99">
-        <v>242</v>
-      </c>
-      <c r="D99">
-        <v>571</v>
-      </c>
-      <c r="E99">
-        <v>235</v>
-      </c>
-      <c r="F99">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>459</v>
-      </c>
-      <c r="B100" t="s">
-        <v>517</v>
-      </c>
-      <c r="C100">
-        <v>210</v>
-      </c>
-      <c r="D100">
-        <v>492</v>
-      </c>
-      <c r="E100">
-        <v>200</v>
-      </c>
-      <c r="F100">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>459</v>
-      </c>
-      <c r="B101" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101">
-        <v>207</v>
-      </c>
-      <c r="D101">
-        <v>484</v>
-      </c>
-      <c r="E101">
-        <v>197</v>
-      </c>
-      <c r="F101">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>459</v>
-      </c>
-      <c r="B102" t="s">
-        <v>216</v>
-      </c>
-      <c r="C102">
-        <v>293</v>
-      </c>
-      <c r="D102">
-        <v>615</v>
-      </c>
-      <c r="E102">
-        <v>280</v>
-      </c>
-      <c r="F102">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>509</v>
-      </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103">
-        <v>21</v>
-      </c>
-      <c r="D103">
-        <v>177</v>
-      </c>
-      <c r="E103">
-        <v>19</v>
-      </c>
-      <c r="F103">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>509</v>
-      </c>
-      <c r="B104" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104">
-        <v>33</v>
-      </c>
-      <c r="D104">
-        <v>254</v>
-      </c>
-      <c r="E104">
-        <v>23</v>
-      </c>
-      <c r="F104">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>509</v>
-      </c>
-      <c r="B105" t="s">
-        <v>400</v>
-      </c>
-      <c r="C105">
-        <v>489</v>
-      </c>
-      <c r="D105">
-        <v>1618</v>
-      </c>
-      <c r="E105">
-        <v>421</v>
-      </c>
-      <c r="F105">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>509</v>
-      </c>
-      <c r="B106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C106">
-        <v>494</v>
-      </c>
-      <c r="D106">
-        <v>1760</v>
-      </c>
-      <c r="E106">
-        <v>472</v>
-      </c>
-      <c r="F106">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>509</v>
-      </c>
-      <c r="B107" t="s">
-        <v>511</v>
-      </c>
-      <c r="C107">
-        <v>494</v>
-      </c>
-      <c r="D107">
-        <v>1760</v>
-      </c>
-      <c r="E107">
-        <v>472</v>
-      </c>
-      <c r="F107">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>509</v>
-      </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108">
-        <v>480</v>
-      </c>
-      <c r="D108">
-        <v>1694</v>
-      </c>
-      <c r="E108">
-        <v>431</v>
-      </c>
-      <c r="F108">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>509</v>
-      </c>
-      <c r="B109" t="s">
-        <v>519</v>
-      </c>
-      <c r="C109">
-        <v>476</v>
-      </c>
-      <c r="D109">
-        <v>1683</v>
-      </c>
-      <c r="E109">
-        <v>428</v>
-      </c>
-      <c r="F109">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>509</v>
-      </c>
-      <c r="B110" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110">
-        <v>399</v>
-      </c>
-      <c r="D110">
-        <v>1367</v>
-      </c>
-      <c r="E110">
-        <v>327</v>
-      </c>
-      <c r="F110">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>509</v>
-      </c>
-      <c r="B111" t="s">
-        <v>239</v>
-      </c>
-      <c r="C111">
-        <v>369</v>
-      </c>
-      <c r="D111">
-        <v>1323</v>
-      </c>
-      <c r="E111">
-        <v>346</v>
-      </c>
-      <c r="F111">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>509</v>
-      </c>
-      <c r="B112" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112">
-        <v>438</v>
-      </c>
-      <c r="D112">
-        <v>1613</v>
-      </c>
-      <c r="E112">
-        <v>421</v>
-      </c>
-      <c r="F112">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>509</v>
-      </c>
-      <c r="B113" t="s">
-        <v>513</v>
-      </c>
-      <c r="C113">
-        <v>374</v>
-      </c>
-      <c r="D113">
-        <v>1336</v>
-      </c>
-      <c r="E113">
-        <v>351</v>
-      </c>
-      <c r="F113">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>509</v>
-      </c>
-      <c r="B114" t="s">
-        <v>515</v>
-      </c>
-      <c r="C114">
-        <v>440</v>
-      </c>
-      <c r="D114">
-        <v>1627</v>
-      </c>
-      <c r="E114">
-        <v>423</v>
-      </c>
-      <c r="F114">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>509</v>
-      </c>
-      <c r="B115" t="s">
-        <v>517</v>
-      </c>
-      <c r="C115">
-        <v>430</v>
-      </c>
-      <c r="D115">
-        <v>1613</v>
-      </c>
-      <c r="E115">
-        <v>409</v>
-      </c>
-      <c r="F115">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>509</v>
-      </c>
-      <c r="B116" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116">
-        <v>428</v>
-      </c>
-      <c r="D116">
-        <v>1601</v>
-      </c>
-      <c r="E116">
-        <v>407</v>
-      </c>
-      <c r="F116">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>509</v>
-      </c>
-      <c r="B117" t="s">
-        <v>216</v>
-      </c>
-      <c r="C117">
-        <v>431</v>
-      </c>
-      <c r="D117">
-        <v>1591</v>
-      </c>
-      <c r="E117">
-        <v>402</v>
-      </c>
-      <c r="F117">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>411</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118">
-        <v>25</v>
-      </c>
-      <c r="D118">
-        <v>203</v>
-      </c>
-      <c r="E118">
-        <v>25</v>
-      </c>
-      <c r="F118">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>411</v>
-      </c>
-      <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119">
-        <v>21</v>
-      </c>
-      <c r="D119">
-        <v>136</v>
-      </c>
-      <c r="E119">
-        <v>21</v>
-      </c>
-      <c r="F119">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>411</v>
-      </c>
-      <c r="B120" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120">
-        <v>34</v>
-      </c>
-      <c r="D120">
-        <v>250</v>
-      </c>
-      <c r="E120">
-        <v>34</v>
-      </c>
-      <c r="F120">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>411</v>
-      </c>
-      <c r="B121" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121">
-        <v>34</v>
-      </c>
-      <c r="D121">
-        <v>283</v>
-      </c>
-      <c r="E121">
-        <v>34</v>
-      </c>
-      <c r="F121">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>411</v>
-      </c>
-      <c r="B122" t="s">
-        <v>511</v>
-      </c>
-      <c r="C122">
-        <v>59</v>
-      </c>
-      <c r="D122">
-        <v>338</v>
-      </c>
-      <c r="E122">
-        <v>59</v>
-      </c>
-      <c r="F122">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>411</v>
-      </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123">
-        <v>41</v>
-      </c>
-      <c r="D123">
-        <v>321</v>
-      </c>
-      <c r="E123">
-        <v>41</v>
-      </c>
-      <c r="F123">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>411</v>
-      </c>
-      <c r="B124" t="s">
-        <v>519</v>
-      </c>
-      <c r="C124">
-        <v>50</v>
-      </c>
-      <c r="D124">
-        <v>211</v>
-      </c>
-      <c r="E124">
-        <v>49</v>
-      </c>
-      <c r="F124">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>411</v>
-      </c>
-      <c r="B125" t="s">
-        <v>400</v>
-      </c>
-      <c r="C125">
-        <v>25</v>
-      </c>
-      <c r="D125">
-        <v>190</v>
-      </c>
-      <c r="E125">
-        <v>25</v>
-      </c>
-      <c r="F125">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>223</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126">
-        <v>179</v>
-      </c>
-      <c r="D126">
-        <v>488</v>
-      </c>
-      <c r="E126">
-        <v>178</v>
-      </c>
-      <c r="F126">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>223</v>
-      </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127">
-        <v>39</v>
-      </c>
-      <c r="D127">
-        <v>179</v>
-      </c>
-      <c r="E127">
-        <v>38</v>
-      </c>
-      <c r="F127">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128">
-        <v>84</v>
-      </c>
-      <c r="D128">
-        <v>269</v>
-      </c>
-      <c r="E128">
-        <v>82</v>
-      </c>
-      <c r="F128">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129">
-        <v>133</v>
-      </c>
-      <c r="D129">
-        <v>366</v>
-      </c>
-      <c r="E129">
-        <v>132</v>
-      </c>
-      <c r="F129">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>223</v>
-      </c>
-      <c r="B130" t="s">
-        <v>511</v>
-      </c>
-      <c r="C130">
-        <v>132</v>
-      </c>
-      <c r="D130">
-        <v>355</v>
-      </c>
-      <c r="E130">
-        <v>131</v>
-      </c>
-      <c r="F130">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
-        <v>223</v>
-      </c>
-      <c r="B131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131">
-        <v>133</v>
-      </c>
-      <c r="D131">
-        <v>370</v>
-      </c>
-      <c r="E131">
-        <v>129</v>
-      </c>
-      <c r="F131">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
-        <v>223</v>
-      </c>
-      <c r="B132" t="s">
-        <v>519</v>
-      </c>
-      <c r="C132">
-        <v>128</v>
-      </c>
-      <c r="D132">
-        <v>352</v>
-      </c>
-      <c r="E132">
-        <v>125</v>
-      </c>
-      <c r="F132">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
-        <v>223</v>
-      </c>
-      <c r="B133" t="s">
-        <v>234</v>
-      </c>
-      <c r="C133">
-        <v>80</v>
-      </c>
-      <c r="D133">
-        <v>276</v>
-      </c>
-      <c r="E133">
-        <v>80</v>
-      </c>
-      <c r="F133">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>223</v>
-      </c>
-      <c r="B134" t="s">
-        <v>210</v>
-      </c>
-      <c r="C134">
-        <v>71</v>
-      </c>
-      <c r="D134">
-        <v>266</v>
-      </c>
-      <c r="E134">
-        <v>70</v>
-      </c>
-      <c r="F134">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>223</v>
-      </c>
-      <c r="B135" t="s">
-        <v>239</v>
-      </c>
-      <c r="C135">
-        <v>120</v>
-      </c>
-      <c r="D135">
-        <v>336</v>
-      </c>
-      <c r="E135">
-        <v>120</v>
-      </c>
-      <c r="F135">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>223</v>
-      </c>
-      <c r="B136" t="s">
-        <v>241</v>
-      </c>
-      <c r="C136">
-        <v>97</v>
-      </c>
-      <c r="D136">
-        <v>299</v>
-      </c>
-      <c r="E136">
-        <v>96</v>
-      </c>
-      <c r="F136">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>223</v>
-      </c>
-      <c r="B137" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137">
-        <v>114</v>
-      </c>
-      <c r="D137">
-        <v>343</v>
-      </c>
-      <c r="E137">
-        <v>112</v>
-      </c>
-      <c r="F137">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>223</v>
-      </c>
-      <c r="B138" t="s">
-        <v>247</v>
-      </c>
-      <c r="C138">
-        <v>59</v>
-      </c>
-      <c r="D138">
-        <v>263</v>
-      </c>
-      <c r="E138">
-        <v>59</v>
-      </c>
-      <c r="F138">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
-        <v>223</v>
-      </c>
-      <c r="B139" t="s">
-        <v>512</v>
-      </c>
-      <c r="C139">
-        <v>82</v>
-      </c>
-      <c r="D139">
-        <v>288</v>
-      </c>
-      <c r="E139">
-        <v>82</v>
-      </c>
-      <c r="F139">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>223</v>
-      </c>
-      <c r="B140" t="s">
-        <v>513</v>
-      </c>
-      <c r="C140">
-        <v>125</v>
-      </c>
-      <c r="D140">
-        <v>363</v>
-      </c>
-      <c r="E140">
-        <v>125</v>
-      </c>
-      <c r="F140">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>223</v>
-      </c>
-      <c r="B141" t="s">
-        <v>514</v>
-      </c>
-      <c r="C141">
-        <v>100</v>
-      </c>
-      <c r="D141">
-        <v>316</v>
-      </c>
-      <c r="E141">
-        <v>99</v>
-      </c>
-      <c r="F141">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
-        <v>223</v>
-      </c>
-      <c r="B142" t="s">
-        <v>515</v>
-      </c>
-      <c r="C142">
-        <v>120</v>
-      </c>
-      <c r="D142">
-        <v>366</v>
-      </c>
-      <c r="E142">
-        <v>118</v>
-      </c>
-      <c r="F142">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>223</v>
-      </c>
-      <c r="B143" t="s">
-        <v>516</v>
-      </c>
-      <c r="C143">
-        <v>63</v>
-      </c>
-      <c r="D143">
-        <v>278</v>
-      </c>
-      <c r="E143">
-        <v>63</v>
-      </c>
-      <c r="F143">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>223</v>
-      </c>
-      <c r="B144" t="s">
-        <v>517</v>
-      </c>
-      <c r="C144">
-        <v>111</v>
-      </c>
-      <c r="D144">
-        <v>335</v>
-      </c>
-      <c r="E144">
-        <v>111</v>
-      </c>
-      <c r="F144">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>223</v>
-      </c>
-      <c r="B145" t="s">
-        <v>518</v>
-      </c>
-      <c r="C145">
-        <v>136</v>
-      </c>
-      <c r="D145">
-        <v>354</v>
-      </c>
-      <c r="E145">
-        <v>136</v>
-      </c>
-      <c r="F145">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>223</v>
-      </c>
-      <c r="B146" t="s">
-        <v>251</v>
-      </c>
-      <c r="C146">
-        <v>109</v>
-      </c>
-      <c r="D146">
-        <v>324</v>
-      </c>
-      <c r="E146">
-        <v>109</v>
-      </c>
-      <c r="F146">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" t="s">
-        <v>223</v>
-      </c>
-      <c r="B147" t="s">
-        <v>253</v>
-      </c>
-      <c r="C147">
-        <v>125</v>
-      </c>
-      <c r="D147">
-        <v>324</v>
-      </c>
-      <c r="E147">
-        <v>125</v>
-      </c>
-      <c r="F147">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" t="s">
-        <v>223</v>
-      </c>
-      <c r="B148" t="s">
-        <v>216</v>
-      </c>
-      <c r="C148">
-        <v>120</v>
-      </c>
-      <c r="D148">
-        <v>338</v>
-      </c>
-      <c r="E148">
-        <v>120</v>
-      </c>
-      <c r="F148">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" t="s">
-        <v>22</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149">
-        <v>31</v>
-      </c>
-      <c r="D149">
-        <v>244</v>
-      </c>
-      <c r="E149">
-        <v>31</v>
-      </c>
-      <c r="F149">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150">
-        <v>40</v>
-      </c>
-      <c r="D150">
-        <v>213</v>
-      </c>
-      <c r="E150">
-        <v>40</v>
-      </c>
-      <c r="F150">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151">
-        <v>33</v>
-      </c>
-      <c r="D151">
-        <v>322</v>
-      </c>
-      <c r="E151">
-        <v>33</v>
-      </c>
-      <c r="F151">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" t="s">
-        <v>22</v>
-      </c>
-      <c r="B152" t="s">
-        <v>26</v>
-      </c>
-      <c r="C152">
-        <v>63</v>
-      </c>
-      <c r="D152">
-        <v>360</v>
-      </c>
-      <c r="E152">
-        <v>63</v>
-      </c>
-      <c r="F152">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B153" t="s">
-        <v>511</v>
-      </c>
-      <c r="C153">
-        <v>54</v>
-      </c>
-      <c r="D153">
-        <v>387</v>
-      </c>
-      <c r="E153">
-        <v>54</v>
-      </c>
-      <c r="F153">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" t="s">
-        <v>22</v>
-      </c>
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154">
-        <v>71</v>
-      </c>
-      <c r="D154">
-        <v>409</v>
-      </c>
-      <c r="E154">
-        <v>71</v>
-      </c>
-      <c r="F154">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" t="s">
-        <v>22</v>
-      </c>
-      <c r="B155" t="s">
-        <v>519</v>
-      </c>
-      <c r="C155">
-        <v>78</v>
-      </c>
-      <c r="D155">
-        <v>388</v>
-      </c>
-      <c r="E155">
-        <v>78</v>
-      </c>
-      <c r="F155">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" t="s">
-        <v>22</v>
-      </c>
-      <c r="B156" t="s">
-        <v>400</v>
-      </c>
-      <c r="C156">
-        <v>34</v>
-      </c>
-      <c r="D156">
-        <v>207</v>
-      </c>
-      <c r="E156">
-        <v>34</v>
-      </c>
-      <c r="F156">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
-        <v>227</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157">
-        <v>6</v>
-      </c>
-      <c r="E157">
-        <v>2</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" t="s">
-        <v>227</v>
-      </c>
-      <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>7</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="s">
-        <v>227</v>
-      </c>
-      <c r="B159" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159">
-        <v>3</v>
-      </c>
-      <c r="D159">
-        <v>6</v>
-      </c>
-      <c r="E159">
-        <v>2</v>
-      </c>
-      <c r="F159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
-        <v>227</v>
-      </c>
-      <c r="B160" t="s">
-        <v>26</v>
-      </c>
-      <c r="C160">
-        <v>4</v>
-      </c>
-      <c r="D160">
-        <v>12</v>
-      </c>
-      <c r="E160">
-        <v>4</v>
-      </c>
-      <c r="F160">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" t="s">
-        <v>227</v>
-      </c>
-      <c r="B161" t="s">
-        <v>511</v>
-      </c>
-      <c r="C161">
-        <v>4</v>
-      </c>
-      <c r="D161">
-        <v>12</v>
-      </c>
-      <c r="E161">
-        <v>4</v>
-      </c>
-      <c r="F161">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" t="s">
-        <v>227</v>
-      </c>
-      <c r="B162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-      <c r="D162">
-        <v>12</v>
-      </c>
-      <c r="E162">
-        <v>7</v>
-      </c>
-      <c r="F162">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" t="s">
-        <v>227</v>
-      </c>
-      <c r="B163" t="s">
-        <v>519</v>
-      </c>
-      <c r="C163">
-        <v>7</v>
-      </c>
-      <c r="D163">
-        <v>12</v>
-      </c>
-      <c r="E163">
-        <v>7</v>
-      </c>
-      <c r="F163">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" t="s">
-        <v>227</v>
-      </c>
-      <c r="B164" t="s">
-        <v>234</v>
-      </c>
-      <c r="C164">
-        <v>8</v>
-      </c>
-      <c r="D164">
-        <v>12</v>
-      </c>
-      <c r="E164">
-        <v>8</v>
-      </c>
-      <c r="F164">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" t="s">
-        <v>227</v>
-      </c>
-      <c r="B165" t="s">
-        <v>210</v>
-      </c>
-      <c r="C165">
-        <v>5</v>
-      </c>
-      <c r="D165">
-        <v>11</v>
-      </c>
-      <c r="E165">
-        <v>5</v>
-      </c>
-      <c r="F165">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" t="s">
-        <v>227</v>
-      </c>
-      <c r="B166" t="s">
-        <v>239</v>
-      </c>
-      <c r="C166">
-        <v>8</v>
-      </c>
-      <c r="D166">
-        <v>12</v>
-      </c>
-      <c r="E166">
-        <v>8</v>
-      </c>
-      <c r="F166">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" t="s">
-        <v>227</v>
-      </c>
-      <c r="B167" t="s">
-        <v>241</v>
-      </c>
-      <c r="C167">
-        <v>8</v>
-      </c>
-      <c r="D167">
-        <v>11</v>
-      </c>
-      <c r="E167">
-        <v>8</v>
-      </c>
-      <c r="F167">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" t="s">
-        <v>227</v>
-      </c>
-      <c r="B168" t="s">
-        <v>245</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>12</v>
-      </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" t="s">
-        <v>227</v>
-      </c>
-      <c r="B169" t="s">
-        <v>247</v>
-      </c>
-      <c r="C169">
-        <v>7</v>
-      </c>
-      <c r="D169">
-        <v>13</v>
-      </c>
-      <c r="E169">
-        <v>7</v>
-      </c>
-      <c r="F169">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" t="s">
-        <v>227</v>
-      </c>
-      <c r="B170" t="s">
-        <v>512</v>
-      </c>
-      <c r="C170">
-        <v>8</v>
-      </c>
-      <c r="D170">
-        <v>12</v>
-      </c>
-      <c r="E170">
-        <v>8</v>
-      </c>
-      <c r="F170">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" t="s">
-        <v>227</v>
-      </c>
-      <c r="B171" t="s">
-        <v>513</v>
-      </c>
-      <c r="C171">
-        <v>8</v>
-      </c>
-      <c r="D171">
-        <v>12</v>
-      </c>
-      <c r="E171">
-        <v>8</v>
-      </c>
-      <c r="F171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" t="s">
-        <v>227</v>
-      </c>
-      <c r="B172" t="s">
-        <v>514</v>
-      </c>
-      <c r="C172">
-        <v>8</v>
-      </c>
-      <c r="D172">
-        <v>11</v>
-      </c>
-      <c r="E172">
-        <v>8</v>
-      </c>
-      <c r="F172">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" t="s">
-        <v>227</v>
-      </c>
-      <c r="B173" t="s">
-        <v>515</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>12</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" t="s">
-        <v>227</v>
-      </c>
-      <c r="B174" t="s">
-        <v>516</v>
-      </c>
-      <c r="C174">
-        <v>7</v>
-      </c>
-      <c r="D174">
-        <v>13</v>
-      </c>
-      <c r="E174">
-        <v>7</v>
-      </c>
-      <c r="F174">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" t="s">
-        <v>227</v>
-      </c>
-      <c r="B175" t="s">
-        <v>517</v>
-      </c>
-      <c r="C175">
-        <v>8</v>
-      </c>
-      <c r="D175">
-        <v>12</v>
-      </c>
-      <c r="E175">
-        <v>8</v>
-      </c>
-      <c r="F175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" t="s">
-        <v>227</v>
-      </c>
-      <c r="B176" t="s">
-        <v>518</v>
-      </c>
-      <c r="C176">
-        <v>6</v>
-      </c>
-      <c r="D176">
-        <v>13</v>
-      </c>
-      <c r="E176">
-        <v>6</v>
-      </c>
-      <c r="F176">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" t="s">
-        <v>227</v>
-      </c>
-      <c r="B177" t="s">
-        <v>251</v>
-      </c>
-      <c r="C177">
-        <v>8</v>
-      </c>
-      <c r="D177">
-        <v>12</v>
-      </c>
-      <c r="E177">
-        <v>8</v>
-      </c>
-      <c r="F177">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" t="s">
-        <v>227</v>
-      </c>
-      <c r="B178" t="s">
-        <v>253</v>
-      </c>
-      <c r="C178">
-        <v>6</v>
-      </c>
-      <c r="D178">
-        <v>13</v>
-      </c>
-      <c r="E178">
-        <v>6</v>
-      </c>
-      <c r="F178">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" t="s">
-        <v>227</v>
-      </c>
-      <c r="B179" t="s">
-        <v>216</v>
-      </c>
-      <c r="C179">
-        <v>7</v>
-      </c>
-      <c r="D179">
-        <v>12</v>
-      </c>
-      <c r="E179">
-        <v>7</v>
-      </c>
-      <c r="F179">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" t="s">
-        <v>222</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180">
-        <v>4</v>
-      </c>
-      <c r="D180">
-        <v>24</v>
-      </c>
-      <c r="E180">
-        <v>3</v>
-      </c>
-      <c r="F180">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" t="s">
-        <v>222</v>
-      </c>
-      <c r="B181" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181">
-        <v>2</v>
-      </c>
-      <c r="D181">
-        <v>9</v>
-      </c>
-      <c r="E181">
-        <v>2</v>
-      </c>
-      <c r="F181">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B182" t="s">
-        <v>400</v>
-      </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-      <c r="D182">
-        <v>128</v>
-      </c>
-      <c r="E182">
-        <v>5</v>
-      </c>
-      <c r="F182">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" t="s">
-        <v>222</v>
-      </c>
-      <c r="B183" t="s">
-        <v>26</v>
-      </c>
-      <c r="C183">
-        <v>7</v>
-      </c>
-      <c r="D183">
-        <v>10</v>
-      </c>
-      <c r="E183">
-        <v>6</v>
-      </c>
-      <c r="F183">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" t="s">
-        <v>222</v>
-      </c>
-      <c r="B184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184">
-        <v>6</v>
-      </c>
-      <c r="D184">
-        <v>10</v>
-      </c>
-      <c r="E184">
-        <v>6</v>
-      </c>
-      <c r="F184">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -28339,7 +28339,7 @@
   </sheetPr>
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
@@ -32779,8 +32779,8 @@
   </sheetPr>
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F211" sqref="A107:F211"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K214" sqref="K214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -47660,7 +47660,7 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/data/TaxVAMB_Source_Data.xlsx
+++ b/data/TaxVAMB_Source_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmb127/Documents/TaxVAMB_paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411FD774-34E1-3D48-AC20-1F31B2255DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181DA10-C4DA-BD40-9E40-D01945731EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8400" yWindow="-28200" windowWidth="51200" windowHeight="28200" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8400" yWindow="-28200" windowWidth="51200" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2a" sheetId="19" r:id="rId1"/>
@@ -2203,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E3FEE1-33E1-CA46-9B36-FA8A8BC0E01C}">
   <dimension ref="A1:I341"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="G347" sqref="G347"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="G350" sqref="G350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -9980,7 +9980,7 @@
         <v>92</v>
       </c>
       <c r="I259" t="str">
-        <f t="shared" ref="I259:I281" si="4">_xlfn.CONCAT(G259,"_",D259)</f>
+        <f t="shared" ref="I259:I271" si="4">_xlfn.CONCAT(G259,"_",D259)</f>
         <v>kalmari_taxvamb_default_FALSE</v>
       </c>
     </row>
@@ -10364,14 +10364,14 @@
         <v>0</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H272" s="22">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I272" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" ref="I272:I303" si="5">_xlfn.CONCAT(G272,"_",D272)</f>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -10394,14 +10394,14 @@
         <v>0</v>
       </c>
       <c r="G273" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H273" s="22">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I273" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -10424,14 +10424,14 @@
         <v>0</v>
       </c>
       <c r="G274" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H274" s="22">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="I274" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -10454,14 +10454,14 @@
         <v>0</v>
       </c>
       <c r="G275" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H275" s="22">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I275" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -10484,14 +10484,14 @@
         <v>0</v>
       </c>
       <c r="G276" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H276" s="22">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I276" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -10514,14 +10514,14 @@
         <v>0</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H277" s="22">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="I277" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -10544,14 +10544,14 @@
         <v>0</v>
       </c>
       <c r="G278" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H278" s="22">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I278" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -10574,14 +10574,14 @@
         <v>0</v>
       </c>
       <c r="G279" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H279" s="22">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I279" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -10604,14 +10604,14 @@
         <v>0</v>
       </c>
       <c r="G280" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H280" s="22">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="I280" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -10634,14 +10634,14 @@
         <v>0</v>
       </c>
       <c r="G281" s="22" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H281" s="22">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I281" t="str">
-        <f t="shared" si="4"/>
-        <v>semibin_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>metadecoder_FALSE</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -10661,17 +10661,17 @@
         <v>0</v>
       </c>
       <c r="F282" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H282" s="22">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I282" t="str">
-        <f>_xlfn.CONCAT(G282,"_",D282)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -10691,17 +10691,17 @@
         <v>0</v>
       </c>
       <c r="F283" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H283" s="22">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I283" t="str">
-        <f>_xlfn.CONCAT(G283,"_",D283)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -10721,17 +10721,17 @@
         <v>0</v>
       </c>
       <c r="F284" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H284" s="22">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I284" t="str">
-        <f>_xlfn.CONCAT(G284,"_",D284)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -10751,17 +10751,17 @@
         <v>0</v>
       </c>
       <c r="F285" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H285" s="22">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I285" t="str">
-        <f>_xlfn.CONCAT(G285,"_",D285)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -10781,17 +10781,17 @@
         <v>0</v>
       </c>
       <c r="F286" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H286" s="22">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="I286" t="str">
-        <f>_xlfn.CONCAT(G286,"_",D286)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -10811,17 +10811,17 @@
         <v>0</v>
       </c>
       <c r="F287" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H287" s="22">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I287" t="str">
-        <f>_xlfn.CONCAT(G287,"_",D287)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -10841,17 +10841,17 @@
         <v>0</v>
       </c>
       <c r="F288" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H288" s="22">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I288" t="str">
-        <f>_xlfn.CONCAT(G288,"_",D288)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -10871,17 +10871,17 @@
         <v>0</v>
       </c>
       <c r="F289" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H289" s="22">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I289" t="str">
-        <f>_xlfn.CONCAT(G289,"_",D289)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -10901,17 +10901,17 @@
         <v>0</v>
       </c>
       <c r="F290" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H290" s="22">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I290" t="str">
-        <f>_xlfn.CONCAT(G290,"_",D290)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -10931,17 +10931,17 @@
         <v>0</v>
       </c>
       <c r="F291" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291" s="22" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H291" s="22">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="I291" t="str">
-        <f>_xlfn.CONCAT(G291,"_",D291)</f>
-        <v>metadecoder_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_FALSE</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="D292" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" s="22" t="b">
         <v>0</v>
@@ -10967,11 +10967,11 @@
         <v>13</v>
       </c>
       <c r="H292" s="22">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I292" t="str">
-        <f>_xlfn.CONCAT(G292,"_",D292)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -10985,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="D293" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293" s="22" t="b">
         <v>0</v>
@@ -10997,11 +10997,11 @@
         <v>13</v>
       </c>
       <c r="H293" s="22">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I293" t="str">
-        <f>_xlfn.CONCAT(G293,"_",D293)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="D294" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" s="22" t="b">
         <v>0</v>
@@ -11027,11 +11027,11 @@
         <v>13</v>
       </c>
       <c r="H294" s="22">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I294" t="str">
-        <f>_xlfn.CONCAT(G294,"_",D294)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="D295" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E295" s="22" t="b">
         <v>0</v>
@@ -11057,11 +11057,11 @@
         <v>13</v>
       </c>
       <c r="H295" s="22">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="I295" t="str">
-        <f>_xlfn.CONCAT(G295,"_",D295)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="D296" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" s="22" t="b">
         <v>0</v>
@@ -11087,11 +11087,11 @@
         <v>13</v>
       </c>
       <c r="H296" s="22">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I296" t="str">
-        <f>_xlfn.CONCAT(G296,"_",D296)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="D297" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" s="22" t="b">
         <v>0</v>
@@ -11117,11 +11117,11 @@
         <v>13</v>
       </c>
       <c r="H297" s="22">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I297" t="str">
-        <f>_xlfn.CONCAT(G297,"_",D297)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="D298" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" s="22" t="b">
         <v>0</v>
@@ -11147,11 +11147,11 @@
         <v>13</v>
       </c>
       <c r="H298" s="22">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I298" t="str">
-        <f>_xlfn.CONCAT(G298,"_",D298)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -11165,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="D299" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" s="22" t="b">
         <v>0</v>
@@ -11177,11 +11177,11 @@
         <v>13</v>
       </c>
       <c r="H299" s="22">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I299" t="str">
-        <f>_xlfn.CONCAT(G299,"_",D299)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="D300" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300" s="22" t="b">
         <v>0</v>
@@ -11207,11 +11207,11 @@
         <v>13</v>
       </c>
       <c r="H300" s="22">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="I300" t="str">
-        <f>_xlfn.CONCAT(G300,"_",D300)</f>
-        <v>AVAMB_FALSE</v>
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="D301" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301" s="22" t="b">
         <v>0</v>
@@ -11237,311 +11237,311 @@
         <v>13</v>
       </c>
       <c r="H301" s="22">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I301" t="str">
-        <f>_xlfn.CONCAT(G301,"_",D301)</f>
-        <v>AVAMB_FALSE</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="22" t="s">
+        <f t="shared" si="5"/>
+        <v>AVAMB_TRUE</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16">
+      <c r="A302" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B302" s="22" t="b">
-        <v>0</v>
+      <c r="B302" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="C302" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D302" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302" s="22" t="b">
         <v>0</v>
       </c>
       <c r="F302" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G302" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H302" s="22">
-        <v>108</v>
+        <v>235</v>
+      </c>
+      <c r="H302" s="32">
+        <v>145</v>
       </c>
       <c r="I302" t="str">
-        <f>_xlfn.CONCAT(G302,"_",D302)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="22" t="s">
+        <f t="shared" si="5"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16">
+      <c r="A303" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C303" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E303" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F303" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G303" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H303" s="32">
+        <v>206</v>
+      </c>
+      <c r="I303" t="str">
+        <f t="shared" si="5"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="16">
+      <c r="A304" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C304" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D304" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E304" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F304" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G304" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H304" s="32">
+        <v>158</v>
+      </c>
+      <c r="I304" t="str">
+        <f t="shared" ref="I304:I321" si="6">_xlfn.CONCAT(G304,"_",D304)</f>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16">
+      <c r="A305" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C305" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E305" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F305" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G305" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H305" s="32">
+        <v>180</v>
+      </c>
+      <c r="I305" t="str">
+        <f t="shared" si="6"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16">
+      <c r="A306" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B303" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C303" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D303" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E303" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F303" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G303" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H303" s="22">
-        <v>126</v>
-      </c>
-      <c r="I303" t="str">
-        <f>_xlfn.CONCAT(G303,"_",D303)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="22" t="s">
+      <c r="B306" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C306" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D306" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E306" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F306" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G306" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H306" s="32">
+        <v>116</v>
+      </c>
+      <c r="I306" t="str">
+        <f t="shared" si="6"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16">
+      <c r="A307" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C307" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D307" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E307" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F307" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G307" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H307" s="32">
+        <v>100</v>
+      </c>
+      <c r="I307" t="str">
+        <f t="shared" si="6"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16">
+      <c r="A308" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B308" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C308" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D308" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E308" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F308" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H308" s="32">
+        <v>163</v>
+      </c>
+      <c r="I308" t="str">
+        <f t="shared" si="6"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16">
+      <c r="A309" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B304" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C304" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D304" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E304" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F304" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G304" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H304" s="22">
+      <c r="B309" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C309" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D309" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E309" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F309" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G309" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H309" s="32">
         <v>143</v>
       </c>
-      <c r="I304" t="str">
-        <f>_xlfn.CONCAT(G304,"_",D304)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="22" t="s">
+      <c r="I309" t="str">
+        <f t="shared" si="6"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16">
+      <c r="A310" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B305" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C305" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D305" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E305" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F305" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G305" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H305" s="22">
-        <v>161</v>
-      </c>
-      <c r="I305" t="str">
-        <f>_xlfn.CONCAT(G305,"_",D305)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B306" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C306" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D306" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E306" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F306" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G306" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H306" s="22">
-        <v>179</v>
-      </c>
-      <c r="I306" t="str">
-        <f>_xlfn.CONCAT(G306,"_",D306)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B307" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C307" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D307" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E307" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F307" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G307" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H307" s="22">
-        <v>113</v>
-      </c>
-      <c r="I307" t="str">
-        <f>_xlfn.CONCAT(G307,"_",D307)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="22" t="s">
+      <c r="B310" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C310" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D310" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E310" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F310" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G310" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H310" s="32">
+        <v>134</v>
+      </c>
+      <c r="I310" t="str">
+        <f t="shared" si="6"/>
+        <v>comebin_FALSE</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16">
+      <c r="A311" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B308" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C308" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D308" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E308" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F308" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G308" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H308" s="22">
-        <v>127</v>
-      </c>
-      <c r="I308" t="str">
-        <f>_xlfn.CONCAT(G308,"_",D308)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B309" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C309" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D309" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E309" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F309" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G309" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H309" s="22">
-        <v>149</v>
-      </c>
-      <c r="I309" t="str">
-        <f>_xlfn.CONCAT(G309,"_",D309)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B310" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C310" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D310" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E310" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F310" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G310" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H310" s="22">
-        <v>167</v>
-      </c>
-      <c r="I310" t="str">
-        <f>_xlfn.CONCAT(G310,"_",D310)</f>
-        <v>AVAMB_TRUE</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B311" s="22" t="b">
-        <v>1</v>
+      <c r="B311" s="32" t="b">
+        <v>0</v>
       </c>
       <c r="C311" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D311" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311" s="22" t="b">
         <v>0</v>
       </c>
       <c r="F311" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G311" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H311" s="22">
-        <v>184</v>
+        <v>235</v>
+      </c>
+      <c r="H311" s="32">
+        <v>107</v>
       </c>
       <c r="I311" t="str">
-        <f>_xlfn.CONCAT(G311,"_",D311)</f>
-        <v>AVAMB_TRUE</v>
+        <f t="shared" si="6"/>
+        <v>comebin_FALSE</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16">
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="D312" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E312" s="22" t="b">
         <v>0</v>
@@ -11564,14 +11564,14 @@
         <v>0</v>
       </c>
       <c r="G312" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H312" s="32">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="I312" t="str">
-        <f>_xlfn.CONCAT(G312,"_",D312)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16">
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="D313" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313" s="22" t="b">
         <v>0</v>
@@ -11594,14 +11594,14 @@
         <v>0</v>
       </c>
       <c r="G313" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H313" s="32">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="I313" t="str">
-        <f>_xlfn.CONCAT(G313,"_",D313)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16">
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="D314" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314" s="22" t="b">
         <v>0</v>
@@ -11624,14 +11624,14 @@
         <v>0</v>
       </c>
       <c r="G314" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H314" s="32">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I314" t="str">
-        <f>_xlfn.CONCAT(G314,"_",D314)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16">
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="D315" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315" s="22" t="b">
         <v>0</v>
@@ -11654,14 +11654,14 @@
         <v>0</v>
       </c>
       <c r="G315" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H315" s="32">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I315" t="str">
-        <f>_xlfn.CONCAT(G315,"_",D315)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16">
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="D316" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316" s="22" t="b">
         <v>0</v>
@@ -11684,14 +11684,14 @@
         <v>0</v>
       </c>
       <c r="G316" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H316" s="32">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I316" t="str">
-        <f>_xlfn.CONCAT(G316,"_",D316)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16">
@@ -11705,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="D317" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" s="22" t="b">
         <v>0</v>
@@ -11714,14 +11714,14 @@
         <v>0</v>
       </c>
       <c r="G317" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H317" s="32">
         <v>100</v>
       </c>
       <c r="I317" t="str">
-        <f>_xlfn.CONCAT(G317,"_",D317)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="D318" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" s="22" t="b">
         <v>0</v>
@@ -11744,14 +11744,14 @@
         <v>0</v>
       </c>
       <c r="G318" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H318" s="32">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I318" t="str">
-        <f>_xlfn.CONCAT(G318,"_",D318)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16">
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="D319" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E319" s="22" t="b">
         <v>0</v>
@@ -11774,14 +11774,14 @@
         <v>0</v>
       </c>
       <c r="G319" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H319" s="32">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I319" t="str">
-        <f>_xlfn.CONCAT(G319,"_",D319)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="D320" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320" s="22" t="b">
         <v>0</v>
@@ -11804,14 +11804,14 @@
         <v>0</v>
       </c>
       <c r="G320" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H320" s="32">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I320" t="str">
-        <f>_xlfn.CONCAT(G320,"_",D320)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16">
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="D321" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321" s="22" t="b">
         <v>0</v>
@@ -11834,14 +11834,14 @@
         <v>0</v>
       </c>
       <c r="G321" s="22" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H321" s="32">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I321" t="str">
-        <f>_xlfn.CONCAT(G321,"_",D321)</f>
-        <v>comebin_FALSE</v>
+        <f t="shared" si="6"/>
+        <v>semibin_TRUE</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16">
@@ -11849,13 +11849,13 @@
         <v>4</v>
       </c>
       <c r="B322" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D322" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322" s="22" t="b">
         <v>0</v>
@@ -11864,14 +11864,14 @@
         <v>0</v>
       </c>
       <c r="G322" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H322" s="32">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I322" t="str">
-        <f>_xlfn.CONCAT(G322,"_",D322)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" ref="I322:I341" si="7">_xlfn.CONCAT(G322,"_",D322)</f>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16">
@@ -11879,13 +11879,13 @@
         <v>9</v>
       </c>
       <c r="B323" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D323" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E323" s="22" t="b">
         <v>0</v>
@@ -11894,14 +11894,14 @@
         <v>0</v>
       </c>
       <c r="G323" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H323" s="32">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I323" t="str">
-        <f>_xlfn.CONCAT(G323,"_",D323)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16">
@@ -11909,13 +11909,13 @@
         <v>7</v>
       </c>
       <c r="B324" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D324" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E324" s="22" t="b">
         <v>0</v>
@@ -11924,14 +11924,14 @@
         <v>0</v>
       </c>
       <c r="G324" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H324" s="32">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I324" t="str">
-        <f>_xlfn.CONCAT(G324,"_",D324)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16">
@@ -11939,13 +11939,13 @@
         <v>8</v>
       </c>
       <c r="B325" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D325" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E325" s="22" t="b">
         <v>0</v>
@@ -11954,14 +11954,14 @@
         <v>0</v>
       </c>
       <c r="G325" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H325" s="32">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="I325" t="str">
-        <f>_xlfn.CONCAT(G325,"_",D325)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="16">
@@ -11969,13 +11969,13 @@
         <v>6</v>
       </c>
       <c r="B326" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D326" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326" s="22" t="b">
         <v>0</v>
@@ -11984,14 +11984,14 @@
         <v>0</v>
       </c>
       <c r="G326" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H326" s="32">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I326" t="str">
-        <f>_xlfn.CONCAT(G326,"_",D326)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="16">
@@ -11999,13 +11999,13 @@
         <v>4</v>
       </c>
       <c r="B327" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D327" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E327" s="22" t="b">
         <v>0</v>
@@ -12014,14 +12014,14 @@
         <v>0</v>
       </c>
       <c r="G327" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H327" s="32">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I327" t="str">
-        <f>_xlfn.CONCAT(G327,"_",D327)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16">
@@ -12029,13 +12029,13 @@
         <v>9</v>
       </c>
       <c r="B328" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D328" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E328" s="22" t="b">
         <v>0</v>
@@ -12044,14 +12044,14 @@
         <v>0</v>
       </c>
       <c r="G328" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H328" s="32">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I328" t="str">
-        <f>_xlfn.CONCAT(G328,"_",D328)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16">
@@ -12059,13 +12059,13 @@
         <v>7</v>
       </c>
       <c r="B329" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D329" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E329" s="22" t="b">
         <v>0</v>
@@ -12074,14 +12074,14 @@
         <v>0</v>
       </c>
       <c r="G329" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H329" s="32">
         <v>149</v>
       </c>
       <c r="I329" t="str">
-        <f>_xlfn.CONCAT(G329,"_",D329)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16">
@@ -12089,13 +12089,13 @@
         <v>8</v>
       </c>
       <c r="B330" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D330" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E330" s="22" t="b">
         <v>0</v>
@@ -12104,14 +12104,14 @@
         <v>0</v>
       </c>
       <c r="G330" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H330" s="32">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I330" t="str">
-        <f>_xlfn.CONCAT(G330,"_",D330)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16">
@@ -12119,13 +12119,13 @@
         <v>6</v>
       </c>
       <c r="B331" s="32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" s="22" t="b">
         <v>0</v>
       </c>
       <c r="D331" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E331" s="22" t="b">
         <v>0</v>
@@ -12134,14 +12134,14 @@
         <v>0</v>
       </c>
       <c r="G331" s="22" t="s">
-        <v>267</v>
+        <v>522</v>
       </c>
       <c r="H331" s="32">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I331" t="str">
-        <f>_xlfn.CONCAT(G331,"_",D331)</f>
-        <v>semibin_TRUE</v>
+        <f t="shared" si="7"/>
+        <v>comebin_single_FALSE</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16">
@@ -12164,14 +12164,14 @@
         <v>0</v>
       </c>
       <c r="G332" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H332" s="32">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="I332" t="str">
-        <f t="shared" ref="I332:I341" si="5">_xlfn.CONCAT(G332,"_",D332)</f>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="16">
@@ -12194,14 +12194,14 @@
         <v>0</v>
       </c>
       <c r="G333" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H333" s="32">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I333" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="16">
@@ -12224,14 +12224,14 @@
         <v>0</v>
       </c>
       <c r="G334" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H334" s="32">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="I334" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="16">
@@ -12254,14 +12254,14 @@
         <v>0</v>
       </c>
       <c r="G335" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H335" s="32">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="I335" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="16">
@@ -12284,14 +12284,14 @@
         <v>0</v>
       </c>
       <c r="G336" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H336" s="32">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="I336" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="16">
@@ -12314,14 +12314,14 @@
         <v>0</v>
       </c>
       <c r="G337" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H337" s="32">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="I337" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="16">
@@ -12344,14 +12344,14 @@
         <v>0</v>
       </c>
       <c r="G338" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H338" s="32">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="I338" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="16">
@@ -12374,14 +12374,14 @@
         <v>0</v>
       </c>
       <c r="G339" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H339" s="32">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="I339" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="16">
@@ -12404,14 +12404,14 @@
         <v>0</v>
       </c>
       <c r="G340" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H340" s="32">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="I340" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="16">
@@ -12434,14 +12434,14 @@
         <v>0</v>
       </c>
       <c r="G341" s="22" t="s">
-        <v>522</v>
+        <v>267</v>
       </c>
       <c r="H341" s="32">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I341" t="str">
-        <f t="shared" si="5"/>
-        <v>comebin_single_FALSE</v>
+        <f t="shared" si="7"/>
+        <v>semibin_FALSE</v>
       </c>
     </row>
   </sheetData>
@@ -14630,7 +14630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD03773-EAA3-B544-A37A-98227B841396}">
   <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
